--- a/data/monitoringShootElongation/2024ShootElongation.xlsx
+++ b/data/monitoringShootElongation/2024ShootElongation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\my_repo_dir\fuelinex\data\shoot_elongation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringShootElongation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E38911-E44F-4982-AE2E-A5FA03A778C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE358FF-92C1-E542-9BC3-57E763379B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoot_elongation" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="778">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2124,9 +2124,6 @@
     <t>doy164: (measured longest)</t>
   </si>
   <si>
-    <t>doy143 center shoot dead, only one surviving</t>
-  </si>
-  <si>
     <t>doy143: previous measurement possibly from another shoot</t>
   </si>
   <si>
@@ -2226,9 +2223,6 @@
     <t>doy 192: new leaf contorted</t>
   </si>
   <si>
-    <t>doy 192: resprouted from side branch</t>
-  </si>
-  <si>
     <t>main trunk dead, resprouting from roots; doy 192: resprouting from the top too</t>
   </si>
   <si>
@@ -2259,9 +2253,6 @@
     <t>206</t>
   </si>
   <si>
-    <t>resprouting</t>
-  </si>
-  <si>
     <t>doy 206: red paint peeled off</t>
   </si>
   <si>
@@ -2362,6 +2353,12 @@
   </si>
   <si>
     <t>doy 192: apical shoot broken; doy 199: new shoot measured; doy 227: main shoot snapped off; doy234: shoot died back, doy 241: shoot dead</t>
+  </si>
+  <si>
+    <t>doy 192: resprouted from side branch; doy213: dead</t>
+  </si>
+  <si>
+    <t>doy143 center shoot dead, only one surviving; doy220: resprouting</t>
   </si>
 </sst>
 </file>
@@ -2853,9 +2850,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3599,22 +3595,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A625" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC636" sqref="AC636"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="173" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W194" sqref="W194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
     <col min="7" max="12" width="11" customWidth="1"/>
-    <col min="13" max="17" width="9.75" customWidth="1"/>
+    <col min="13" max="17" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3634,70 +3630,70 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1" t="s">
         <v>705</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>706</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>707</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>708</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>709</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>710</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>711</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>712</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>713</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>714</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>715</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>716</v>
       </c>
-      <c r="S1" t="s">
-        <v>717</v>
-      </c>
       <c r="T1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="U1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="V1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="W1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="X1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="Y1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="Z1" t="s">
-        <v>768</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+        <v>765</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3752,9 +3748,8 @@
       <c r="Z2">
         <v>14.3</v>
       </c>
-      <c r="AA2" s="1"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3809,9 +3804,8 @@
       <c r="Z3">
         <v>12.5</v>
       </c>
-      <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3866,9 +3860,8 @@
       <c r="Z4">
         <v>17</v>
       </c>
-      <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3923,9 +3916,8 @@
       <c r="Z5">
         <v>11.2</v>
       </c>
-      <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3980,9 +3972,8 @@
       <c r="Z6">
         <v>19</v>
       </c>
-      <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4037,9 +4028,8 @@
       <c r="Z7">
         <v>1.8</v>
       </c>
-      <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4094,9 +4084,8 @@
       <c r="Z8">
         <v>8</v>
       </c>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4151,9 +4140,8 @@
       <c r="Z9">
         <v>16.5</v>
       </c>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -4208,9 +4196,8 @@
       <c r="Z10">
         <v>12.4</v>
       </c>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -4265,9 +4252,8 @@
       <c r="Z11">
         <v>4.2</v>
       </c>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -4325,9 +4311,8 @@
       <c r="Z12">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4382,9 +4367,8 @@
       <c r="Z13">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4439,9 +4423,8 @@
       <c r="Z14">
         <v>7.3</v>
       </c>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4496,9 +4479,8 @@
       <c r="Z15">
         <v>13.3</v>
       </c>
-      <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4553,9 +4535,8 @@
       <c r="Z16">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AA16" s="1"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4610,9 +4591,8 @@
       <c r="Z17">
         <v>10.3</v>
       </c>
-      <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -4667,9 +4647,8 @@
       <c r="Z18">
         <v>14.8</v>
       </c>
-      <c r="AA18" s="1"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4724,9 +4703,8 @@
       <c r="Z19">
         <v>13.6</v>
       </c>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -4781,9 +4759,8 @@
       <c r="Z20">
         <v>19.7</v>
       </c>
-      <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4835,9 +4812,8 @@
       <c r="Z21">
         <v>12.5</v>
       </c>
-      <c r="AA21" s="1"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4895,9 +4871,8 @@
       <c r="Z22">
         <v>6</v>
       </c>
-      <c r="AA22" s="1"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4952,9 +4927,8 @@
       <c r="Z23">
         <v>14.6</v>
       </c>
-      <c r="AA23" s="1"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5012,9 +4986,8 @@
       <c r="Z24">
         <v>7</v>
       </c>
-      <c r="AA24" s="1"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -5069,9 +5042,8 @@
       <c r="Z25">
         <v>8</v>
       </c>
-      <c r="AA25" s="1"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -5126,9 +5098,8 @@
       <c r="Z26">
         <v>16.5</v>
       </c>
-      <c r="AA26" s="1"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -5183,9 +5154,8 @@
       <c r="Z27">
         <v>16.7</v>
       </c>
-      <c r="AA27" s="1"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5243,9 +5213,8 @@
       <c r="Z28">
         <v>10.4</v>
       </c>
-      <c r="AA28" s="1"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -5300,9 +5269,8 @@
       <c r="Z29">
         <v>13.5</v>
       </c>
-      <c r="AA29" s="1"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -5360,9 +5328,8 @@
       <c r="Z30">
         <v>9.6</v>
       </c>
-      <c r="AA30" s="1"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -5417,9 +5384,8 @@
       <c r="Z31">
         <v>20.8</v>
       </c>
-      <c r="AA31" s="1"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -5474,9 +5440,8 @@
       <c r="Z32">
         <v>7</v>
       </c>
-      <c r="AA32" s="1"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -5531,9 +5496,8 @@
       <c r="Z33">
         <v>7.5</v>
       </c>
-      <c r="AA33" s="1"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -5588,9 +5552,8 @@
       <c r="Z34">
         <v>8.5</v>
       </c>
-      <c r="AA34" s="1"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -5645,9 +5608,8 @@
       <c r="Z35">
         <v>17.2</v>
       </c>
-      <c r="AA35" s="1"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -5702,9 +5664,8 @@
       <c r="Z36">
         <v>21.2</v>
       </c>
-      <c r="AA36" s="1"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -5762,9 +5723,8 @@
       <c r="Z37">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AA37" s="1"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -5819,9 +5779,8 @@
       <c r="Z38">
         <v>10.7</v>
       </c>
-      <c r="AA38" s="1"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -5876,9 +5835,8 @@
       <c r="Z39">
         <v>10.3</v>
       </c>
-      <c r="AA39" s="1"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -5933,9 +5891,8 @@
       <c r="Z40">
         <v>11.1</v>
       </c>
-      <c r="AA40" s="1"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -5990,9 +5947,8 @@
       <c r="Z41">
         <v>3.6</v>
       </c>
-      <c r="AA41" s="1"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -6047,9 +6003,8 @@
       <c r="Z42">
         <v>7.7</v>
       </c>
-      <c r="AA42" s="1"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -6104,9 +6059,8 @@
       <c r="Z43">
         <v>5.7</v>
       </c>
-      <c r="AA43" s="1"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -6161,9 +6115,8 @@
       <c r="Z44">
         <v>27.5</v>
       </c>
-      <c r="AA44" s="1"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -6218,9 +6171,8 @@
       <c r="Z45">
         <v>10.199999999999999</v>
       </c>
-      <c r="AA45" s="1"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -6275,9 +6227,8 @@
       <c r="Z46">
         <v>5.6</v>
       </c>
-      <c r="AA46" s="1"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -6332,9 +6283,8 @@
       <c r="Z47">
         <v>8.5</v>
       </c>
-      <c r="AA47" s="1"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -6389,9 +6339,8 @@
       <c r="Z48">
         <v>7.4</v>
       </c>
-      <c r="AA48" s="1"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -6446,9 +6395,8 @@
       <c r="Z49">
         <v>11.1</v>
       </c>
-      <c r="AA49" s="1"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -6503,9 +6451,8 @@
       <c r="Z50">
         <v>10</v>
       </c>
-      <c r="AA50" s="1"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -6560,9 +6507,8 @@
       <c r="Z51">
         <v>16.5</v>
       </c>
-      <c r="AA51" s="1"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -6617,9 +6563,8 @@
       <c r="Z52">
         <v>5.3</v>
       </c>
-      <c r="AA52" s="1"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -6674,9 +6619,8 @@
       <c r="Z53">
         <v>23.4</v>
       </c>
-      <c r="AA53" s="1"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -6734,9 +6678,8 @@
       <c r="Z54">
         <v>11</v>
       </c>
-      <c r="AA54" s="1"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -6791,9 +6734,8 @@
       <c r="Z55">
         <v>14.4</v>
       </c>
-      <c r="AA55" s="1"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -6810,7 +6752,7 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G56">
         <v>9.1</v>
@@ -6851,9 +6793,8 @@
       <c r="Z56">
         <v>12.5</v>
       </c>
-      <c r="AA56" s="1"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -6908,9 +6849,8 @@
       <c r="Z57">
         <v>5</v>
       </c>
-      <c r="AA57" s="1"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -6968,9 +6908,8 @@
       <c r="Z58">
         <v>11.5</v>
       </c>
-      <c r="AA58" s="1"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -7025,9 +6964,8 @@
       <c r="Z59">
         <v>13.1</v>
       </c>
-      <c r="AA59" s="1"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -7044,7 +6982,7 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G60">
         <v>4.5</v>
@@ -7085,9 +7023,8 @@
       <c r="Z60">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AA60" s="1"/>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -7142,9 +7079,8 @@
       <c r="Z61">
         <v>7.8</v>
       </c>
-      <c r="AA61" s="1"/>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -7199,9 +7135,8 @@
       <c r="Z62">
         <v>5.5</v>
       </c>
-      <c r="AA62" s="1"/>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -7256,9 +7191,8 @@
       <c r="Z63">
         <v>3.2</v>
       </c>
-      <c r="AA63" s="1"/>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -7313,9 +7247,8 @@
       <c r="Z64">
         <v>8</v>
       </c>
-      <c r="AA64" s="1"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -7370,9 +7303,8 @@
       <c r="Z65">
         <v>3.4</v>
       </c>
-      <c r="AA65" s="1"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -7427,9 +7359,8 @@
       <c r="Z66">
         <v>8.1</v>
       </c>
-      <c r="AA66" s="1"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -7484,9 +7415,8 @@
       <c r="Z67">
         <v>5.9</v>
       </c>
-      <c r="AA67" s="1"/>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -7541,9 +7471,8 @@
       <c r="Z68">
         <v>12.2</v>
       </c>
-      <c r="AA68" s="1"/>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -7598,9 +7527,8 @@
       <c r="Z69">
         <v>19.3</v>
       </c>
-      <c r="AA69" s="1"/>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -7655,9 +7583,8 @@
       <c r="Z70">
         <v>17.2</v>
       </c>
-      <c r="AA70" s="1"/>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -7712,9 +7639,8 @@
       <c r="Z71">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AA71" s="1"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -7769,9 +7695,8 @@
       <c r="Z72">
         <v>13.1</v>
       </c>
-      <c r="AA72" s="1"/>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -7826,9 +7751,8 @@
       <c r="Z73">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AA73" s="1"/>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -7883,9 +7807,8 @@
       <c r="Z74">
         <v>8.1</v>
       </c>
-      <c r="AA74" s="1"/>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -7940,9 +7863,8 @@
       <c r="Z75">
         <v>12.3</v>
       </c>
-      <c r="AA75" s="1"/>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -7997,9 +7919,8 @@
       <c r="Z76">
         <v>3.4</v>
       </c>
-      <c r="AA76" s="1"/>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -8054,9 +7975,8 @@
       <c r="Z77">
         <v>5.2</v>
       </c>
-      <c r="AA77" s="1"/>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -8111,9 +8031,8 @@
       <c r="Z78">
         <v>9</v>
       </c>
-      <c r="AA78" s="1"/>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -8171,9 +8090,8 @@
       <c r="Z79">
         <v>5.9</v>
       </c>
-      <c r="AA79" s="1"/>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -8231,9 +8149,8 @@
       <c r="Z80">
         <v>8.6</v>
       </c>
-      <c r="AA80" s="1"/>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>95</v>
       </c>
@@ -8288,9 +8205,8 @@
       <c r="Z81">
         <v>5.2</v>
       </c>
-      <c r="AA81" s="1"/>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -8345,9 +8261,8 @@
       <c r="Z82">
         <v>5.4</v>
       </c>
-      <c r="AA82" s="1"/>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -8402,9 +8317,8 @@
       <c r="Z83">
         <v>11.2</v>
       </c>
-      <c r="AA83" s="1"/>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>98</v>
       </c>
@@ -8459,9 +8373,8 @@
       <c r="Z84">
         <v>10.7</v>
       </c>
-      <c r="AA84" s="1"/>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -8516,9 +8429,8 @@
       <c r="Z85">
         <v>5.6</v>
       </c>
-      <c r="AA85" s="1"/>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -8573,9 +8485,8 @@
       <c r="Z86">
         <v>12.2</v>
       </c>
-      <c r="AA86" s="1"/>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -8630,9 +8541,8 @@
       <c r="Z87">
         <v>8.4</v>
       </c>
-      <c r="AA87" s="1"/>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -8687,9 +8597,8 @@
       <c r="Z88">
         <v>11.9</v>
       </c>
-      <c r="AA88" s="1"/>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -8744,9 +8653,8 @@
       <c r="Z89">
         <v>11.2</v>
       </c>
-      <c r="AA89" s="1"/>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -8804,9 +8712,8 @@
       <c r="Z90">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AA90" s="1"/>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -8861,9 +8768,8 @@
       <c r="Z91">
         <v>15.5</v>
       </c>
-      <c r="AA91" s="1"/>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -8931,7 +8837,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -8999,7 +8905,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -9067,7 +8973,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>111</v>
       </c>
@@ -9138,7 +9044,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>112</v>
       </c>
@@ -9206,7 +9112,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -9274,7 +9180,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -9342,7 +9248,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>115</v>
       </c>
@@ -9410,7 +9316,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -9478,7 +9384,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -9546,7 +9452,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -9614,7 +9520,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -9682,7 +9588,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -9750,7 +9656,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -9818,7 +9724,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -9886,7 +9792,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -9954,7 +9860,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -10022,7 +9928,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -10093,7 +9999,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -10161,7 +10067,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -10229,7 +10135,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -10297,7 +10203,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -10368,7 +10274,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -10436,7 +10342,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -10504,7 +10410,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -10572,7 +10478,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -10640,7 +10546,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -10708,7 +10614,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -10776,7 +10682,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -10844,7 +10750,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -10912,7 +10818,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -10983,7 +10889,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -11051,7 +10957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -11119,7 +11025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -11187,7 +11093,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -11255,7 +11161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -11323,7 +11229,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -11391,7 +11297,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -11459,7 +11365,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -11527,7 +11433,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -11595,7 +11501,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -11663,7 +11569,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -11731,7 +11637,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -11799,7 +11705,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -11867,7 +11773,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -11938,7 +11844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -12006,7 +11912,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>158</v>
       </c>
@@ -12074,7 +11980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -12142,7 +12048,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>160</v>
       </c>
@@ -12210,7 +12116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -12278,7 +12184,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -12346,7 +12252,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>163</v>
       </c>
@@ -12414,7 +12320,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -12482,7 +12388,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>165</v>
       </c>
@@ -12550,7 +12456,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -12618,7 +12524,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -12686,7 +12592,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -12754,7 +12660,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>169</v>
       </c>
@@ -12822,7 +12728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -12890,7 +12796,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -12958,7 +12864,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -13026,7 +12932,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -13094,7 +13000,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -13162,7 +13068,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>175</v>
       </c>
@@ -13230,7 +13136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -13298,7 +13204,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -13366,7 +13272,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -13434,7 +13340,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -13502,7 +13408,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -13570,7 +13476,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -13638,7 +13544,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -13705,11 +13611,11 @@
       <c r="Z162">
         <v>26.3</v>
       </c>
-      <c r="AA162" s="1">
+      <c r="AA162">
         <v>28.5</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -13777,7 +13683,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -13848,7 +13754,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -13916,7 +13822,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -13984,7 +13890,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -14052,7 +13958,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -14120,7 +14026,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -14188,7 +14094,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>190</v>
       </c>
@@ -14256,7 +14162,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -14324,7 +14230,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>192</v>
       </c>
@@ -14392,7 +14298,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>193</v>
       </c>
@@ -14460,7 +14366,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>194</v>
       </c>
@@ -14528,7 +14434,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>195</v>
       </c>
@@ -14596,7 +14502,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>196</v>
       </c>
@@ -14664,7 +14570,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>197</v>
       </c>
@@ -14732,7 +14638,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>198</v>
       </c>
@@ -14800,7 +14706,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>199</v>
       </c>
@@ -14868,7 +14774,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -14936,7 +14842,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>201</v>
       </c>
@@ -15004,7 +14910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -15059,9 +14965,8 @@
       <c r="Z182">
         <v>15.5</v>
       </c>
-      <c r="AA182" s="1"/>
-    </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>205</v>
       </c>
@@ -15116,9 +15021,8 @@
       <c r="Z183">
         <v>14.3</v>
       </c>
-      <c r="AA183" s="1"/>
-    </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -15173,9 +15077,8 @@
       <c r="Z184">
         <v>3.1</v>
       </c>
-      <c r="AA184" s="1"/>
-    </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>207</v>
       </c>
@@ -15230,9 +15133,8 @@
       <c r="Z185">
         <v>3.1</v>
       </c>
-      <c r="AA185" s="1"/>
-    </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -15287,9 +15189,8 @@
       <c r="Z186">
         <v>14.6</v>
       </c>
-      <c r="AA186" s="1"/>
-    </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -15344,9 +15245,8 @@
       <c r="Z187">
         <v>4</v>
       </c>
-      <c r="AA187" s="1"/>
-    </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>210</v>
       </c>
@@ -15401,9 +15301,8 @@
       <c r="Z188">
         <v>8.5</v>
       </c>
-      <c r="AA188" s="1"/>
-    </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -15461,9 +15360,8 @@
       <c r="Z189">
         <v>3.6</v>
       </c>
-      <c r="AA189" s="1"/>
-    </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>213</v>
       </c>
@@ -15518,9 +15416,8 @@
       <c r="Z190">
         <v>7.2</v>
       </c>
-      <c r="AA190" s="1"/>
-    </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>214</v>
       </c>
@@ -15575,9 +15472,8 @@
       <c r="Z191">
         <v>7</v>
       </c>
-      <c r="AA191" s="1"/>
-    </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>215</v>
       </c>
@@ -15632,9 +15528,8 @@
       <c r="Z192">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AA192" s="1"/>
-    </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>216</v>
       </c>
@@ -15689,9 +15584,8 @@
       <c r="Z193">
         <v>6.7</v>
       </c>
-      <c r="AA193" s="1"/>
-    </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>217</v>
       </c>
@@ -15708,7 +15602,7 @@
         <v>204</v>
       </c>
       <c r="F194" t="s">
-        <v>699</v>
+        <v>777</v>
       </c>
       <c r="I194">
         <v>0.8</v>
@@ -15743,18 +15637,14 @@
       <c r="V194">
         <v>7.5</v>
       </c>
-      <c r="W194" t="s">
-        <v>744</v>
-      </c>
       <c r="X194">
         <v>8.8000000000000007</v>
       </c>
       <c r="Z194">
         <v>8.6</v>
       </c>
-      <c r="AA194" s="1"/>
-    </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>218</v>
       </c>
@@ -15809,9 +15699,8 @@
       <c r="Z195">
         <v>2.1</v>
       </c>
-      <c r="AA195" s="1"/>
-    </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>219</v>
       </c>
@@ -15866,9 +15755,8 @@
       <c r="Z196">
         <v>11.6</v>
       </c>
-      <c r="AA196" s="1"/>
-    </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>220</v>
       </c>
@@ -15923,9 +15811,8 @@
       <c r="Z197">
         <v>3.8</v>
       </c>
-      <c r="AA197" s="1"/>
-    </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>221</v>
       </c>
@@ -15980,9 +15867,8 @@
       <c r="Z198">
         <v>11.2</v>
       </c>
-      <c r="AA198" s="1"/>
-    </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -16037,9 +15923,8 @@
       <c r="Z199">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AA199" s="1"/>
-    </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>223</v>
       </c>
@@ -16094,9 +15979,8 @@
       <c r="Z200">
         <v>3</v>
       </c>
-      <c r="AA200" s="1"/>
-    </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -16151,9 +16035,8 @@
       <c r="Z201">
         <v>5.2</v>
       </c>
-      <c r="AA201" s="1"/>
-    </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>225</v>
       </c>
@@ -16208,9 +16091,8 @@
       <c r="Z202">
         <v>14.8</v>
       </c>
-      <c r="AA202" s="1"/>
-    </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -16265,9 +16147,8 @@
       <c r="Z203">
         <v>12.4</v>
       </c>
-      <c r="AA203" s="1"/>
-    </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>227</v>
       </c>
@@ -16322,9 +16203,8 @@
       <c r="Z204">
         <v>5</v>
       </c>
-      <c r="AA204" s="1"/>
-    </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -16379,9 +16259,8 @@
       <c r="Z205">
         <v>14.8</v>
       </c>
-      <c r="AA205" s="1"/>
-    </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>229</v>
       </c>
@@ -16436,9 +16315,8 @@
       <c r="Z206">
         <v>0.9</v>
       </c>
-      <c r="AA206" s="1"/>
-    </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -16493,9 +16371,8 @@
       <c r="Z207">
         <v>9.4</v>
       </c>
-      <c r="AA207" s="1"/>
-    </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>231</v>
       </c>
@@ -16550,9 +16427,8 @@
       <c r="Z208">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AA208" s="1"/>
-    </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>232</v>
       </c>
@@ -16607,9 +16483,8 @@
       <c r="Z209">
         <v>8.1</v>
       </c>
-      <c r="AA209" s="1"/>
-    </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>233</v>
       </c>
@@ -16664,9 +16539,8 @@
       <c r="Z210">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AA210" s="1"/>
-    </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>234</v>
       </c>
@@ -16721,9 +16595,8 @@
       <c r="Z211">
         <v>7.1</v>
       </c>
-      <c r="AA211" s="1"/>
-    </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>235</v>
       </c>
@@ -16778,9 +16651,8 @@
       <c r="Z212">
         <v>6.2</v>
       </c>
-      <c r="AA212" s="1"/>
-    </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>236</v>
       </c>
@@ -16835,9 +16707,8 @@
       <c r="Z213">
         <v>2.5</v>
       </c>
-      <c r="AA213" s="1"/>
-    </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>237</v>
       </c>
@@ -16892,9 +16763,8 @@
       <c r="Z214">
         <v>3.5</v>
       </c>
-      <c r="AA214" s="1"/>
-    </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -16949,9 +16819,8 @@
       <c r="Z215">
         <v>2.8</v>
       </c>
-      <c r="AA215" s="1"/>
-    </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -17006,9 +16875,8 @@
       <c r="Z216">
         <v>12</v>
       </c>
-      <c r="AA216" s="1"/>
-    </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>240</v>
       </c>
@@ -17063,9 +16931,8 @@
       <c r="Z217">
         <v>1.3</v>
       </c>
-      <c r="AA217" s="1"/>
-    </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>241</v>
       </c>
@@ -17120,9 +16987,8 @@
       <c r="Z218">
         <v>7.3</v>
       </c>
-      <c r="AA218" s="1"/>
-    </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>242</v>
       </c>
@@ -17139,7 +17005,7 @@
         <v>204</v>
       </c>
       <c r="F219" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I219">
         <v>0.8</v>
@@ -17180,9 +17046,8 @@
       <c r="Z219">
         <v>2</v>
       </c>
-      <c r="AA219" s="1"/>
-    </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>243</v>
       </c>
@@ -17237,9 +17102,8 @@
       <c r="Z220">
         <v>12.2</v>
       </c>
-      <c r="AA220" s="1"/>
-    </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>244</v>
       </c>
@@ -17294,9 +17158,8 @@
       <c r="Z221">
         <v>8.9</v>
       </c>
-      <c r="AA221" s="1"/>
-    </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -17351,9 +17214,8 @@
       <c r="Z222">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AA222" s="1"/>
-    </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>246</v>
       </c>
@@ -17408,9 +17270,8 @@
       <c r="Z223">
         <v>4</v>
       </c>
-      <c r="AA223" s="1"/>
-    </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>247</v>
       </c>
@@ -17465,9 +17326,8 @@
       <c r="Z224">
         <v>3.7</v>
       </c>
-      <c r="AA224" s="1"/>
-    </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>248</v>
       </c>
@@ -17522,9 +17382,8 @@
       <c r="Z225">
         <v>5</v>
       </c>
-      <c r="AA225" s="1"/>
-    </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -17579,9 +17438,8 @@
       <c r="Z226">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA226" s="1"/>
-    </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>250</v>
       </c>
@@ -17598,7 +17456,7 @@
         <v>204</v>
       </c>
       <c r="F227" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="I227">
         <v>5.3</v>
@@ -17639,9 +17497,8 @@
       <c r="Z227">
         <v>5.7</v>
       </c>
-      <c r="AA227" s="1"/>
-    </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -17696,9 +17553,8 @@
       <c r="Z228">
         <v>12.4</v>
       </c>
-      <c r="AA228" s="1"/>
-    </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>252</v>
       </c>
@@ -17753,9 +17609,8 @@
       <c r="Z229">
         <v>13.1</v>
       </c>
-      <c r="AA229" s="1"/>
-    </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -17810,9 +17665,8 @@
       <c r="Z230">
         <v>3.3</v>
       </c>
-      <c r="AA230" s="1"/>
-    </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -17867,9 +17721,8 @@
       <c r="Z231">
         <v>4</v>
       </c>
-      <c r="AA231" s="1"/>
-    </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -17924,9 +17777,8 @@
       <c r="Z232">
         <v>14.9</v>
       </c>
-      <c r="AA232" s="1"/>
-    </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -17981,9 +17833,8 @@
       <c r="Z233">
         <v>7.6</v>
       </c>
-      <c r="AA233" s="1"/>
-    </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>257</v>
       </c>
@@ -18038,9 +17889,8 @@
       <c r="Z234">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AA234" s="1"/>
-    </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -18095,9 +17945,8 @@
       <c r="Z235">
         <v>13.1</v>
       </c>
-      <c r="AA235" s="1"/>
-    </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>259</v>
       </c>
@@ -18114,7 +17963,7 @@
         <v>204</v>
       </c>
       <c r="F236" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I236">
         <v>12.9</v>
@@ -18155,9 +18004,8 @@
       <c r="Z236">
         <v>18.399999999999999</v>
       </c>
-      <c r="AA236" s="1"/>
-    </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>260</v>
       </c>
@@ -18174,7 +18022,7 @@
         <v>204</v>
       </c>
       <c r="F237" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I237">
         <v>1.2</v>
@@ -18215,9 +18063,8 @@
       <c r="Z237">
         <v>1.2</v>
       </c>
-      <c r="AA237" s="1"/>
-    </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>261</v>
       </c>
@@ -18272,9 +18119,8 @@
       <c r="Z238">
         <v>8.4</v>
       </c>
-      <c r="AA238" s="1"/>
-    </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -18329,9 +18175,8 @@
       <c r="Z239">
         <v>7.7</v>
       </c>
-      <c r="AA239" s="1"/>
-    </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>263</v>
       </c>
@@ -18386,9 +18231,8 @@
       <c r="Z240">
         <v>15.5</v>
       </c>
-      <c r="AA240" s="1"/>
-    </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>264</v>
       </c>
@@ -18443,9 +18287,8 @@
       <c r="Z241">
         <v>8</v>
       </c>
-      <c r="AA241" s="1"/>
-    </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>265</v>
       </c>
@@ -18500,9 +18343,8 @@
       <c r="Z242">
         <v>6</v>
       </c>
-      <c r="AA242" s="1"/>
-    </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>266</v>
       </c>
@@ -18557,9 +18399,8 @@
       <c r="Z243">
         <v>6.6</v>
       </c>
-      <c r="AA243" s="1"/>
-    </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>267</v>
       </c>
@@ -18614,9 +18455,8 @@
       <c r="Z244">
         <v>5.4</v>
       </c>
-      <c r="AA244" s="1"/>
-    </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>268</v>
       </c>
@@ -18633,7 +18473,7 @@
         <v>204</v>
       </c>
       <c r="F245" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I245">
         <v>1.3</v>
@@ -18674,9 +18514,8 @@
       <c r="Z245" t="s">
         <v>132</v>
       </c>
-      <c r="AA245" s="1"/>
-    </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>269</v>
       </c>
@@ -18731,9 +18570,8 @@
       <c r="Z246">
         <v>17.899999999999999</v>
       </c>
-      <c r="AA246" s="1"/>
-    </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>270</v>
       </c>
@@ -18788,9 +18626,8 @@
       <c r="Z247">
         <v>5</v>
       </c>
-      <c r="AA247" s="1"/>
-    </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>271</v>
       </c>
@@ -18845,9 +18682,8 @@
       <c r="Z248">
         <v>4.2</v>
       </c>
-      <c r="AA248" s="1"/>
-    </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>272</v>
       </c>
@@ -18902,9 +18738,8 @@
       <c r="Z249">
         <v>2.8</v>
       </c>
-      <c r="AA249" s="1"/>
-    </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>273</v>
       </c>
@@ -18921,7 +18756,7 @@
         <v>204</v>
       </c>
       <c r="F250" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I250">
         <v>6.2</v>
@@ -18962,9 +18797,8 @@
       <c r="Z250">
         <v>14.3</v>
       </c>
-      <c r="AA250" s="1"/>
-    </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>274</v>
       </c>
@@ -18981,7 +18815,7 @@
         <v>204</v>
       </c>
       <c r="F251" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I251">
         <v>6.8</v>
@@ -19022,9 +18856,8 @@
       <c r="Z251">
         <v>7.5</v>
       </c>
-      <c r="AA251" s="1"/>
-    </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>275</v>
       </c>
@@ -19079,9 +18912,8 @@
       <c r="Z252">
         <v>4.2</v>
       </c>
-      <c r="AA252" s="1"/>
-    </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>276</v>
       </c>
@@ -19136,9 +18968,8 @@
       <c r="Z253">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AA253" s="1"/>
-    </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>277</v>
       </c>
@@ -19193,9 +19024,8 @@
       <c r="Z254">
         <v>15.5</v>
       </c>
-      <c r="AA254" s="1"/>
-    </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>278</v>
       </c>
@@ -19250,9 +19080,8 @@
       <c r="Z255">
         <v>6.5</v>
       </c>
-      <c r="AA255" s="1"/>
-    </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>279</v>
       </c>
@@ -19307,9 +19136,8 @@
       <c r="Z256">
         <v>11.1</v>
       </c>
-      <c r="AA256" s="1"/>
-    </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>280</v>
       </c>
@@ -19364,9 +19192,8 @@
       <c r="Z257">
         <v>20</v>
       </c>
-      <c r="AA257" s="1"/>
-    </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>281</v>
       </c>
@@ -19421,9 +19248,8 @@
       <c r="Z258">
         <v>2.8</v>
       </c>
-      <c r="AA258" s="1"/>
-    </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>282</v>
       </c>
@@ -19478,9 +19304,8 @@
       <c r="Z259">
         <v>11.9</v>
       </c>
-      <c r="AA259" s="1"/>
-    </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>283</v>
       </c>
@@ -19535,9 +19360,8 @@
       <c r="Z260">
         <v>15.3</v>
       </c>
-      <c r="AA260" s="1"/>
-    </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>284</v>
       </c>
@@ -19592,9 +19416,8 @@
       <c r="Z261">
         <v>12.2</v>
       </c>
-      <c r="AA261" s="1"/>
-    </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>285</v>
       </c>
@@ -19649,9 +19472,8 @@
       <c r="Z262">
         <v>11.8</v>
       </c>
-      <c r="AA262" s="1"/>
-    </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>286</v>
       </c>
@@ -19706,9 +19528,8 @@
       <c r="Z263">
         <v>2.4</v>
       </c>
-      <c r="AA263" s="1"/>
-    </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>287</v>
       </c>
@@ -19763,9 +19584,8 @@
       <c r="Z264">
         <v>11.7</v>
       </c>
-      <c r="AA264" s="1"/>
-    </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>288</v>
       </c>
@@ -19820,9 +19640,8 @@
       <c r="Z265">
         <v>9.5</v>
       </c>
-      <c r="AA265" s="1"/>
-    </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>289</v>
       </c>
@@ -19877,9 +19696,8 @@
       <c r="Z266">
         <v>16.2</v>
       </c>
-      <c r="AA266" s="1"/>
-    </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>290</v>
       </c>
@@ -19934,9 +19752,8 @@
       <c r="Z267">
         <v>12.3</v>
       </c>
-      <c r="AA267" s="1"/>
-    </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>291</v>
       </c>
@@ -19991,9 +19808,8 @@
       <c r="Z268">
         <v>4.2</v>
       </c>
-      <c r="AA268" s="1"/>
-    </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>292</v>
       </c>
@@ -20048,9 +19864,8 @@
       <c r="Z269">
         <v>5.3</v>
       </c>
-      <c r="AA269" s="1"/>
-    </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>293</v>
       </c>
@@ -20105,9 +19920,8 @@
       <c r="Z270">
         <v>14</v>
       </c>
-      <c r="AA270" s="1"/>
-    </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>294</v>
       </c>
@@ -20162,9 +19976,8 @@
       <c r="Z271">
         <v>5.2</v>
       </c>
-      <c r="AA271" s="1"/>
-    </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>295</v>
       </c>
@@ -20181,7 +19994,7 @@
         <v>297</v>
       </c>
       <c r="F272" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="I272">
         <v>0.8</v>
@@ -20231,11 +20044,11 @@
       <c r="Z272">
         <v>17.5</v>
       </c>
-      <c r="AA272" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA272" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>298</v>
       </c>
@@ -20299,11 +20112,11 @@
       <c r="Z273">
         <v>42.6</v>
       </c>
-      <c r="AA273" s="1">
+      <c r="AA273">
         <v>42.6</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>299</v>
       </c>
@@ -20320,7 +20133,7 @@
         <v>297</v>
       </c>
       <c r="F274" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I274">
         <v>1.1000000000000001</v>
@@ -20370,11 +20183,11 @@
       <c r="Z274">
         <v>23.2</v>
       </c>
-      <c r="AA274" s="1">
+      <c r="AA274">
         <v>23.2</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>300</v>
       </c>
@@ -20391,7 +20204,7 @@
         <v>297</v>
       </c>
       <c r="F275" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="I275">
         <v>1.8</v>
@@ -20441,11 +20254,11 @@
       <c r="Z275">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AA275" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA275" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>301</v>
       </c>
@@ -20462,7 +20275,7 @@
         <v>297</v>
       </c>
       <c r="F276" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I276">
         <v>1.4</v>
@@ -20512,11 +20325,11 @@
       <c r="Z276">
         <v>21</v>
       </c>
-      <c r="AA276" s="1">
+      <c r="AA276">
         <v>21.5</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>302</v>
       </c>
@@ -20580,11 +20393,11 @@
       <c r="Z277">
         <v>25.3</v>
       </c>
-      <c r="AA277" s="1">
+      <c r="AA277">
         <v>26.3</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>303</v>
       </c>
@@ -20648,11 +20461,11 @@
       <c r="Z278">
         <v>21.3</v>
       </c>
-      <c r="AA278" s="1">
+      <c r="AA278">
         <v>21.3</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>304</v>
       </c>
@@ -20669,7 +20482,7 @@
         <v>297</v>
       </c>
       <c r="F279" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I279">
         <v>0.5</v>
@@ -20719,11 +20532,11 @@
       <c r="Z279" t="s">
         <v>132</v>
       </c>
-      <c r="AA279" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA279" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>305</v>
       </c>
@@ -20787,11 +20600,11 @@
       <c r="Z280">
         <v>8.8000000000000007</v>
       </c>
-      <c r="AA280" s="1">
+      <c r="AA280">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>306</v>
       </c>
@@ -20855,11 +20668,11 @@
       <c r="Z281">
         <v>37.299999999999997</v>
       </c>
-      <c r="AA281" s="1">
+      <c r="AA281">
         <v>38</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>307</v>
       </c>
@@ -20876,7 +20689,7 @@
         <v>297</v>
       </c>
       <c r="F282" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="I282">
         <v>1.7</v>
@@ -20926,11 +20739,11 @@
       <c r="Z282" t="s">
         <v>132</v>
       </c>
-      <c r="AA282" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA282" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>308</v>
       </c>
@@ -20997,11 +20810,11 @@
       <c r="Z283" t="s">
         <v>132</v>
       </c>
-      <c r="AA283" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA283" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>309</v>
       </c>
@@ -21018,7 +20831,7 @@
         <v>297</v>
       </c>
       <c r="F284" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I284">
         <v>1.2</v>
@@ -21068,11 +20881,11 @@
       <c r="Z284">
         <v>19.399999999999999</v>
       </c>
-      <c r="AA284" s="1">
+      <c r="AA284">
         <v>19.7</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>310</v>
       </c>
@@ -21089,7 +20902,7 @@
         <v>297</v>
       </c>
       <c r="F285" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I285">
         <v>0.6</v>
@@ -21139,11 +20952,11 @@
       <c r="Z285">
         <v>15.7</v>
       </c>
-      <c r="AA285" s="1">
+      <c r="AA285">
         <v>15.7</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>311</v>
       </c>
@@ -21160,7 +20973,7 @@
         <v>297</v>
       </c>
       <c r="F286" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="I286">
         <v>1.1000000000000001</v>
@@ -21210,11 +21023,11 @@
       <c r="Z286">
         <v>43.5</v>
       </c>
-      <c r="AA286" s="1">
+      <c r="AA286">
         <v>44.5</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>312</v>
       </c>
@@ -21278,11 +21091,11 @@
       <c r="Z287">
         <v>33.200000000000003</v>
       </c>
-      <c r="AA287" s="1">
+      <c r="AA287">
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>313</v>
       </c>
@@ -21346,11 +21159,11 @@
       <c r="Z288">
         <v>25.1</v>
       </c>
-      <c r="AA288" s="1">
+      <c r="AA288">
         <v>26.4</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>314</v>
       </c>
@@ -21414,11 +21227,11 @@
       <c r="Z289">
         <v>28</v>
       </c>
-      <c r="AA289" s="1">
+      <c r="AA289">
         <v>27.9</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>315</v>
       </c>
@@ -21482,11 +21295,11 @@
       <c r="Z290">
         <v>20.9</v>
       </c>
-      <c r="AA290" s="1">
+      <c r="AA290">
         <v>20.6</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>316</v>
       </c>
@@ -21550,11 +21363,11 @@
       <c r="Z291">
         <v>36.1</v>
       </c>
-      <c r="AA291" s="1">
+      <c r="AA291">
         <v>37.1</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>317</v>
       </c>
@@ -21618,11 +21431,11 @@
       <c r="Z292">
         <v>25</v>
       </c>
-      <c r="AA292" s="1">
+      <c r="AA292">
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>318</v>
       </c>
@@ -21686,11 +21499,11 @@
       <c r="Z293">
         <v>22.2</v>
       </c>
-      <c r="AA293" s="1">
+      <c r="AA293">
         <v>22.2</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>319</v>
       </c>
@@ -21754,11 +21567,11 @@
       <c r="Z294">
         <v>22.8</v>
       </c>
-      <c r="AA294" s="1">
+      <c r="AA294">
         <v>22.8</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>320</v>
       </c>
@@ -21822,11 +21635,11 @@
       <c r="Z295">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AA295" s="1">
+      <c r="AA295">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>321</v>
       </c>
@@ -21890,11 +21703,11 @@
       <c r="Z296">
         <v>35.4</v>
       </c>
-      <c r="AA296" s="1">
+      <c r="AA296">
         <v>36.9</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>322</v>
       </c>
@@ -21911,7 +21724,7 @@
         <v>297</v>
       </c>
       <c r="F297" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I297">
         <v>1.7</v>
@@ -21961,11 +21774,11 @@
       <c r="Z297">
         <v>20.8</v>
       </c>
-      <c r="AA297" s="1">
+      <c r="AA297">
         <v>20.8</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -22029,11 +21842,11 @@
       <c r="Z298">
         <v>28</v>
       </c>
-      <c r="AA298" s="1">
+      <c r="AA298">
         <v>31</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>324</v>
       </c>
@@ -22050,7 +21863,7 @@
         <v>297</v>
       </c>
       <c r="F299" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="I299">
         <v>1.3</v>
@@ -22100,11 +21913,11 @@
       <c r="Z299">
         <v>2.8</v>
       </c>
-      <c r="AA299" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA299" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>325</v>
       </c>
@@ -22168,11 +21981,11 @@
       <c r="Z300">
         <v>31.7</v>
       </c>
-      <c r="AA300" s="1">
+      <c r="AA300">
         <v>32</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>326</v>
       </c>
@@ -22236,11 +22049,11 @@
       <c r="Z301">
         <v>30</v>
       </c>
-      <c r="AA301" s="1">
+      <c r="AA301">
         <v>30.9</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>327</v>
       </c>
@@ -22304,11 +22117,11 @@
       <c r="Z302">
         <v>5.6</v>
       </c>
-      <c r="AA302" s="1">
+      <c r="AA302">
         <v>5.8</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>328</v>
       </c>
@@ -22372,11 +22185,11 @@
       <c r="Z303">
         <v>26</v>
       </c>
-      <c r="AA303" s="1">
+      <c r="AA303">
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>329</v>
       </c>
@@ -22440,11 +22253,11 @@
       <c r="Z304">
         <v>12.9</v>
       </c>
-      <c r="AA304" s="1">
+      <c r="AA304">
         <v>12.9</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>330</v>
       </c>
@@ -22508,11 +22321,11 @@
       <c r="Z305">
         <v>30</v>
       </c>
-      <c r="AA305" s="1">
+      <c r="AA305">
         <v>29.9</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>331</v>
       </c>
@@ -22576,11 +22389,11 @@
       <c r="Z306">
         <v>16.600000000000001</v>
       </c>
-      <c r="AA306" s="1">
+      <c r="AA306">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>332</v>
       </c>
@@ -22644,11 +22457,11 @@
       <c r="Z307">
         <v>35.299999999999997</v>
       </c>
-      <c r="AA307" s="1">
+      <c r="AA307">
         <v>35.4</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>333</v>
       </c>
@@ -22712,11 +22525,11 @@
       <c r="Z308">
         <v>14</v>
       </c>
-      <c r="AA308" s="1">
+      <c r="AA308">
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>334</v>
       </c>
@@ -22780,11 +22593,11 @@
       <c r="Z309">
         <v>6</v>
       </c>
-      <c r="AA309" s="1">
+      <c r="AA309">
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>335</v>
       </c>
@@ -22851,11 +22664,11 @@
       <c r="Z310">
         <v>23.2</v>
       </c>
-      <c r="AA310" s="1">
+      <c r="AA310">
         <v>23.2</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>337</v>
       </c>
@@ -22919,11 +22732,11 @@
       <c r="Z311">
         <v>28.8</v>
       </c>
-      <c r="AA311" s="1">
+      <c r="AA311">
         <v>30</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>338</v>
       </c>
@@ -22987,11 +22800,11 @@
       <c r="Z312">
         <v>23.5</v>
       </c>
-      <c r="AA312" s="1">
+      <c r="AA312">
         <v>25.5</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>339</v>
       </c>
@@ -23008,7 +22821,7 @@
         <v>297</v>
       </c>
       <c r="F313" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I313">
         <v>1.2</v>
@@ -23058,11 +22871,11 @@
       <c r="Z313">
         <v>36.1</v>
       </c>
-      <c r="AA313" s="1">
+      <c r="AA313">
         <v>38.1</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>340</v>
       </c>
@@ -23129,11 +22942,11 @@
       <c r="Z314">
         <v>30.8</v>
       </c>
-      <c r="AA314" s="1">
+      <c r="AA314">
         <v>31.1</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>341</v>
       </c>
@@ -23197,11 +23010,11 @@
       <c r="Z315">
         <v>36.4</v>
       </c>
-      <c r="AA315" s="1">
+      <c r="AA315">
         <v>38</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>342</v>
       </c>
@@ -23265,11 +23078,11 @@
       <c r="Z316">
         <v>40.799999999999997</v>
       </c>
-      <c r="AA316" s="1">
+      <c r="AA316">
         <v>42.1</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>343</v>
       </c>
@@ -23286,7 +23099,7 @@
         <v>297</v>
       </c>
       <c r="F317" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="I317">
         <v>0.9</v>
@@ -23336,11 +23149,11 @@
       <c r="Z317">
         <v>1.7</v>
       </c>
-      <c r="AA317" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA317" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -23404,11 +23217,11 @@
       <c r="Z318">
         <v>11</v>
       </c>
-      <c r="AA318" s="1">
+      <c r="AA318">
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -23472,11 +23285,11 @@
       <c r="Z319">
         <v>31.4</v>
       </c>
-      <c r="AA319" s="1">
+      <c r="AA319">
         <v>31.4</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -23493,7 +23306,7 @@
         <v>297</v>
       </c>
       <c r="F320" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I320">
         <v>1.4</v>
@@ -23543,11 +23356,11 @@
       <c r="Z320">
         <v>29.9</v>
       </c>
-      <c r="AA320" s="1">
+      <c r="AA320">
         <v>29.9</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -23611,11 +23424,11 @@
       <c r="Z321">
         <v>28.5</v>
       </c>
-      <c r="AA321" s="1">
+      <c r="AA321">
         <v>28.5</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -23682,11 +23495,11 @@
       <c r="Z322" t="s">
         <v>132</v>
       </c>
-      <c r="AA322" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA322" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>349</v>
       </c>
@@ -23750,11 +23563,11 @@
       <c r="Z323">
         <v>33.9</v>
       </c>
-      <c r="AA323" s="1">
+      <c r="AA323">
         <v>34.1</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -23821,11 +23634,11 @@
       <c r="Z324" t="s">
         <v>132</v>
       </c>
-      <c r="AA324" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA324" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>352</v>
       </c>
@@ -23889,11 +23702,11 @@
       <c r="Z325">
         <v>61.7</v>
       </c>
-      <c r="AA325" s="1">
+      <c r="AA325">
         <v>63.2</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -23957,11 +23770,11 @@
       <c r="Z326">
         <v>24.4</v>
       </c>
-      <c r="AA326" s="1">
+      <c r="AA326">
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>354</v>
       </c>
@@ -24025,11 +23838,11 @@
       <c r="Z327">
         <v>43.1</v>
       </c>
-      <c r="AA327" s="1">
+      <c r="AA327">
         <v>43.8</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>355</v>
       </c>
@@ -24046,7 +23859,7 @@
         <v>297</v>
       </c>
       <c r="F328" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="I328">
         <v>1.5</v>
@@ -24096,11 +23909,11 @@
       <c r="Z328">
         <v>2.4</v>
       </c>
-      <c r="AA328" s="1">
+      <c r="AA328">
         <v>2.4</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>356</v>
       </c>
@@ -24164,11 +23977,11 @@
       <c r="Z329">
         <v>16.399999999999999</v>
       </c>
-      <c r="AA329" s="1">
+      <c r="AA329">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>357</v>
       </c>
@@ -24232,11 +24045,11 @@
       <c r="Z330">
         <v>19</v>
       </c>
-      <c r="AA330" s="1">
+      <c r="AA330">
         <v>19.5</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>358</v>
       </c>
@@ -24253,7 +24066,7 @@
         <v>297</v>
       </c>
       <c r="F331" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I331">
         <v>1.4</v>
@@ -24303,11 +24116,11 @@
       <c r="Z331" t="s">
         <v>132</v>
       </c>
-      <c r="AA331" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA331" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>359</v>
       </c>
@@ -24324,7 +24137,7 @@
         <v>297</v>
       </c>
       <c r="F332" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="I332">
         <v>1.5</v>
@@ -24374,11 +24187,11 @@
       <c r="Z332">
         <v>45.8</v>
       </c>
-      <c r="AA332" s="1">
+      <c r="AA332">
         <v>46.5</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>360</v>
       </c>
@@ -24442,11 +24255,11 @@
       <c r="Z333">
         <v>12.6</v>
       </c>
-      <c r="AA333" s="1">
+      <c r="AA333">
         <v>12.6</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>361</v>
       </c>
@@ -24463,7 +24276,7 @@
         <v>297</v>
       </c>
       <c r="F334" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="I334">
         <v>3.2</v>
@@ -24513,11 +24326,11 @@
       <c r="Z334">
         <v>6</v>
       </c>
-      <c r="AA334" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA334" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>362</v>
       </c>
@@ -24581,11 +24394,11 @@
       <c r="Z335">
         <v>12.5</v>
       </c>
-      <c r="AA335" s="1">
+      <c r="AA335">
         <v>12.5</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>363</v>
       </c>
@@ -24602,7 +24415,7 @@
         <v>297</v>
       </c>
       <c r="F336" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="I336">
         <v>1.7</v>
@@ -24652,11 +24465,11 @@
       <c r="Z336">
         <v>21.8</v>
       </c>
-      <c r="AA336" s="1">
+      <c r="AA336">
         <v>21.8</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>364</v>
       </c>
@@ -24720,11 +24533,11 @@
       <c r="Z337">
         <v>7.9</v>
       </c>
-      <c r="AA337" s="1">
+      <c r="AA337">
         <v>7.9</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>365</v>
       </c>
@@ -24788,11 +24601,11 @@
       <c r="Z338">
         <v>2.6</v>
       </c>
-      <c r="AA338" s="1">
+      <c r="AA338">
         <v>2.6</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -24856,11 +24669,11 @@
       <c r="Z339">
         <v>2</v>
       </c>
-      <c r="AA339" s="1">
+      <c r="AA339">
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>367</v>
       </c>
@@ -24924,11 +24737,11 @@
       <c r="Z340">
         <v>41.3</v>
       </c>
-      <c r="AA340" s="1">
+      <c r="AA340">
         <v>41.5</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>368</v>
       </c>
@@ -24992,11 +24805,11 @@
       <c r="Z341">
         <v>19.5</v>
       </c>
-      <c r="AA341" s="1">
+      <c r="AA341">
         <v>19.5</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>369</v>
       </c>
@@ -25060,11 +24873,11 @@
       <c r="Z342">
         <v>2.5</v>
       </c>
-      <c r="AA342" s="1">
+      <c r="AA342">
         <v>2.5</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -25081,7 +24894,7 @@
         <v>297</v>
       </c>
       <c r="F343" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="I343">
         <v>4.4000000000000004</v>
@@ -25131,11 +24944,11 @@
       <c r="Z343">
         <v>30.8</v>
       </c>
-      <c r="AA343" s="1">
+      <c r="AA343">
         <v>31</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>371</v>
       </c>
@@ -25152,7 +24965,7 @@
         <v>297</v>
       </c>
       <c r="F344" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="I344">
         <v>1.8</v>
@@ -25202,11 +25015,11 @@
       <c r="Z344">
         <v>32.200000000000003</v>
       </c>
-      <c r="AA344" s="1">
+      <c r="AA344">
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>372</v>
       </c>
@@ -25270,11 +25083,11 @@
       <c r="Z345">
         <v>13.9</v>
       </c>
-      <c r="AA345" s="1">
+      <c r="AA345">
         <v>13.9</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>373</v>
       </c>
@@ -25338,11 +25151,11 @@
       <c r="Z346">
         <v>4.5</v>
       </c>
-      <c r="AA346" s="1">
+      <c r="AA346">
         <v>4.5</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>374</v>
       </c>
@@ -25406,11 +25219,11 @@
       <c r="Z347">
         <v>34.299999999999997</v>
       </c>
-      <c r="AA347" s="1">
+      <c r="AA347">
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>375</v>
       </c>
@@ -25474,11 +25287,11 @@
       <c r="Z348">
         <v>9.1</v>
       </c>
-      <c r="AA348" s="1">
+      <c r="AA348">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>376</v>
       </c>
@@ -25542,11 +25355,11 @@
       <c r="Z349">
         <v>5.2</v>
       </c>
-      <c r="AA349" s="1">
+      <c r="AA349">
         <v>5.2</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>377</v>
       </c>
@@ -25563,7 +25376,7 @@
         <v>297</v>
       </c>
       <c r="F350" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I350">
         <v>1.3</v>
@@ -25613,11 +25426,11 @@
       <c r="Z350">
         <v>5.8</v>
       </c>
-      <c r="AA350" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA350" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>378</v>
       </c>
@@ -25681,11 +25494,11 @@
       <c r="Z351">
         <v>36.5</v>
       </c>
-      <c r="AA351" s="1">
+      <c r="AA351">
         <v>36.5</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>379</v>
       </c>
@@ -25702,7 +25515,7 @@
         <v>297</v>
       </c>
       <c r="F352" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I352">
         <v>1.5</v>
@@ -25752,11 +25565,11 @@
       <c r="Z352">
         <v>3</v>
       </c>
-      <c r="AA352" s="1">
+      <c r="AA352">
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>380</v>
       </c>
@@ -25820,11 +25633,11 @@
       <c r="Z353">
         <v>27.4</v>
       </c>
-      <c r="AA353" s="1">
+      <c r="AA353">
         <v>27.6</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>381</v>
       </c>
@@ -25888,11 +25701,11 @@
       <c r="Z354">
         <v>2.6</v>
       </c>
-      <c r="AA354" s="1">
+      <c r="AA354">
         <v>2.6</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>382</v>
       </c>
@@ -25959,11 +25772,11 @@
       <c r="Z355" t="s">
         <v>132</v>
       </c>
-      <c r="AA355" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA355" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>383</v>
       </c>
@@ -26027,11 +25840,11 @@
       <c r="Z356">
         <v>37</v>
       </c>
-      <c r="AA356" s="1">
+      <c r="AA356">
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>384</v>
       </c>
@@ -26098,11 +25911,11 @@
       <c r="Z357">
         <v>8.1</v>
       </c>
-      <c r="AA357" s="1">
+      <c r="AA357">
         <v>8.1</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>385</v>
       </c>
@@ -26166,11 +25979,11 @@
       <c r="Z358">
         <v>17.7</v>
       </c>
-      <c r="AA358" s="1">
+      <c r="AA358">
         <v>17.7</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>386</v>
       </c>
@@ -26234,11 +26047,11 @@
       <c r="Z359">
         <v>16.899999999999999</v>
       </c>
-      <c r="AA359" s="1">
+      <c r="AA359">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>387</v>
       </c>
@@ -26302,11 +26115,11 @@
       <c r="Z360">
         <v>37.4</v>
       </c>
-      <c r="AA360" s="1">
+      <c r="AA360">
         <v>37.6</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>388</v>
       </c>
@@ -26370,11 +26183,11 @@
       <c r="Z361">
         <v>35.9</v>
       </c>
-      <c r="AA361" s="1">
+      <c r="AA361">
         <v>43.8</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>389</v>
       </c>
@@ -26429,9 +26242,8 @@
       <c r="Z362">
         <v>2.7</v>
       </c>
-      <c r="AA362" s="1"/>
-    </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>392</v>
       </c>
@@ -26486,9 +26298,8 @@
       <c r="Z363">
         <v>2.6</v>
       </c>
-      <c r="AA363" s="1"/>
-    </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -26505,7 +26316,7 @@
         <v>391</v>
       </c>
       <c r="F364" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H364">
         <v>0.8</v>
@@ -26546,9 +26357,8 @@
       <c r="Z364">
         <v>0.8</v>
       </c>
-      <c r="AA364" s="1"/>
-    </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>394</v>
       </c>
@@ -26603,9 +26413,8 @@
       <c r="Z365">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AA365" s="1"/>
-    </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -26660,9 +26469,8 @@
       <c r="Z366">
         <v>1.5</v>
       </c>
-      <c r="AA366" s="1"/>
-    </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>396</v>
       </c>
@@ -26717,9 +26525,8 @@
       <c r="Z367">
         <v>0.7</v>
       </c>
-      <c r="AA367" s="1"/>
-    </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -26777,9 +26584,8 @@
       <c r="Z368">
         <v>1</v>
       </c>
-      <c r="AA368" s="1"/>
-    </row>
-    <row r="369" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="369" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>399</v>
       </c>
@@ -26796,7 +26602,7 @@
         <v>391</v>
       </c>
       <c r="F369" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H369">
         <v>0.4</v>
@@ -26837,9 +26643,8 @@
       <c r="Z369">
         <v>0.5</v>
       </c>
-      <c r="AA369" s="1"/>
-    </row>
-    <row r="370" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -26894,9 +26699,8 @@
       <c r="Z370">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AA370" s="1"/>
-    </row>
-    <row r="371" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -26951,9 +26755,8 @@
       <c r="Z371">
         <v>0.6</v>
       </c>
-      <c r="AA371" s="1"/>
-    </row>
-    <row r="372" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>402</v>
       </c>
@@ -27008,9 +26811,8 @@
       <c r="Z372">
         <v>0.9</v>
       </c>
-      <c r="AA372" s="1"/>
-    </row>
-    <row r="373" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="373" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>403</v>
       </c>
@@ -27065,9 +26867,8 @@
       <c r="Z373">
         <v>0.3</v>
       </c>
-      <c r="AA373" s="1"/>
-    </row>
-    <row r="374" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>404</v>
       </c>
@@ -27122,9 +26923,8 @@
       <c r="Z374">
         <v>1.4</v>
       </c>
-      <c r="AA374" s="1"/>
-    </row>
-    <row r="375" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="375" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>405</v>
       </c>
@@ -27179,9 +26979,8 @@
       <c r="Z375">
         <v>1</v>
       </c>
-      <c r="AA375" s="1"/>
-    </row>
-    <row r="376" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>406</v>
       </c>
@@ -27198,7 +26997,7 @@
         <v>391</v>
       </c>
       <c r="F376" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H376">
         <v>0.8</v>
@@ -27239,9 +27038,8 @@
       <c r="Z376">
         <v>0.7</v>
       </c>
-      <c r="AA376" s="1"/>
-    </row>
-    <row r="377" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="377" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>407</v>
       </c>
@@ -27296,9 +27094,8 @@
       <c r="Z377">
         <v>1</v>
       </c>
-      <c r="AA377" s="1"/>
-    </row>
-    <row r="378" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="378" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>408</v>
       </c>
@@ -27353,9 +27150,8 @@
       <c r="Z378">
         <v>1.2</v>
       </c>
-      <c r="AA378" s="1"/>
-    </row>
-    <row r="379" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="379" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -27410,9 +27206,8 @@
       <c r="Z379">
         <v>1</v>
       </c>
-      <c r="AA379" s="1"/>
-    </row>
-    <row r="380" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="380" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>410</v>
       </c>
@@ -27470,9 +27265,8 @@
       <c r="Z380" t="s">
         <v>132</v>
       </c>
-      <c r="AA380" s="1"/>
-    </row>
-    <row r="381" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="381" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>412</v>
       </c>
@@ -27530,9 +27324,8 @@
       <c r="Z381">
         <v>0.7</v>
       </c>
-      <c r="AA381" s="1"/>
-    </row>
-    <row r="382" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="382" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>414</v>
       </c>
@@ -27587,9 +27380,8 @@
       <c r="Z382">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA382" s="1"/>
-    </row>
-    <row r="383" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="383" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>415</v>
       </c>
@@ -27644,9 +27436,8 @@
       <c r="Z383">
         <v>1.8</v>
       </c>
-      <c r="AA383" s="1"/>
-    </row>
-    <row r="384" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="384" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>416</v>
       </c>
@@ -27701,9 +27492,8 @@
       <c r="Z384">
         <v>0.6</v>
       </c>
-      <c r="AA384" s="1"/>
-    </row>
-    <row r="385" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="385" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>417</v>
       </c>
@@ -27758,9 +27548,8 @@
       <c r="Z385">
         <v>1.6</v>
       </c>
-      <c r="AA385" s="1"/>
-    </row>
-    <row r="386" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="386" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>418</v>
       </c>
@@ -27815,9 +27604,8 @@
       <c r="Z386">
         <v>0.5</v>
       </c>
-      <c r="AA386" s="1"/>
-    </row>
-    <row r="387" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="387" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>419</v>
       </c>
@@ -27875,9 +27663,8 @@
       <c r="Z387" t="s">
         <v>132</v>
       </c>
-      <c r="AA387" s="1"/>
-    </row>
-    <row r="388" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="388" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -27932,9 +27719,8 @@
       <c r="Z388">
         <v>0.5</v>
       </c>
-      <c r="AA388" s="1"/>
-    </row>
-    <row r="389" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="389" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>422</v>
       </c>
@@ -27989,9 +27775,8 @@
       <c r="Z389">
         <v>1.5</v>
       </c>
-      <c r="AA389" s="1"/>
-    </row>
-    <row r="390" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="390" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -28046,9 +27831,8 @@
       <c r="Z390">
         <v>18</v>
       </c>
-      <c r="AA390" s="1"/>
-    </row>
-    <row r="391" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="391" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>424</v>
       </c>
@@ -28103,9 +27887,8 @@
       <c r="Z391">
         <v>0.4</v>
       </c>
-      <c r="AA391" s="1"/>
-    </row>
-    <row r="392" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="392" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -28122,7 +27905,7 @@
         <v>391</v>
       </c>
       <c r="F392" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H392">
         <v>0.4</v>
@@ -28163,9 +27946,8 @@
       <c r="Z392" t="s">
         <v>132</v>
       </c>
-      <c r="AA392" s="1"/>
-    </row>
-    <row r="393" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="393" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -28220,9 +28002,8 @@
       <c r="Z393">
         <v>0.8</v>
       </c>
-      <c r="AA393" s="1"/>
-    </row>
-    <row r="394" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="394" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -28280,9 +28061,8 @@
       <c r="Z394">
         <v>0.9</v>
       </c>
-      <c r="AA394" s="1"/>
-    </row>
-    <row r="395" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="395" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -28337,9 +28117,8 @@
       <c r="Z395">
         <v>1</v>
       </c>
-      <c r="AA395" s="1"/>
-    </row>
-    <row r="396" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="396" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -28394,9 +28173,8 @@
       <c r="Z396">
         <v>1.4</v>
       </c>
-      <c r="AA396" s="1"/>
-    </row>
-    <row r="397" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="397" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -28451,9 +28229,8 @@
       <c r="Z397">
         <v>0.7</v>
       </c>
-      <c r="AA397" s="1"/>
-    </row>
-    <row r="398" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="398" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -28508,9 +28285,8 @@
       <c r="Z398">
         <v>0.8</v>
       </c>
-      <c r="AA398" s="1"/>
-    </row>
-    <row r="399" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="399" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -28568,9 +28344,8 @@
       <c r="Z399">
         <v>1.7</v>
       </c>
-      <c r="AA399" s="1"/>
-    </row>
-    <row r="400" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="400" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>434</v>
       </c>
@@ -28625,9 +28400,8 @@
       <c r="Z400">
         <v>1.9</v>
       </c>
-      <c r="AA400" s="1"/>
-    </row>
-    <row r="401" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="401" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>435</v>
       </c>
@@ -28682,9 +28456,8 @@
       <c r="Z401">
         <v>2.8</v>
       </c>
-      <c r="AA401" s="1"/>
-    </row>
-    <row r="402" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="402" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>436</v>
       </c>
@@ -28701,7 +28474,7 @@
         <v>391</v>
       </c>
       <c r="F402" t="s">
-        <v>733</v>
+        <v>776</v>
       </c>
       <c r="H402">
         <v>0.6</v>
@@ -28736,18 +28509,14 @@
       <c r="V402" t="s">
         <v>132</v>
       </c>
-      <c r="W402" t="s">
-        <v>131</v>
-      </c>
       <c r="X402" t="s">
         <v>132</v>
       </c>
       <c r="Z402" t="s">
         <v>132</v>
       </c>
-      <c r="AA402" s="1"/>
-    </row>
-    <row r="403" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="403" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>437</v>
       </c>
@@ -28805,9 +28574,8 @@
       <c r="Z403">
         <v>0.7</v>
       </c>
-      <c r="AA403" s="1"/>
-    </row>
-    <row r="404" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="404" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>438</v>
       </c>
@@ -28824,7 +28592,7 @@
         <v>391</v>
       </c>
       <c r="F404" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H404" t="s">
         <v>132</v>
@@ -28865,9 +28633,8 @@
       <c r="Z404" t="s">
         <v>132</v>
       </c>
-      <c r="AA404" s="1"/>
-    </row>
-    <row r="405" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="405" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>439</v>
       </c>
@@ -28922,9 +28689,8 @@
       <c r="Z405">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AA405" s="1"/>
-    </row>
-    <row r="406" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="406" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>440</v>
       </c>
@@ -28979,9 +28745,8 @@
       <c r="Z406">
         <v>0.8</v>
       </c>
-      <c r="AA406" s="1"/>
-    </row>
-    <row r="407" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="407" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>441</v>
       </c>
@@ -29036,9 +28801,8 @@
       <c r="Z407">
         <v>0.8</v>
       </c>
-      <c r="AA407" s="1"/>
-    </row>
-    <row r="408" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="408" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>442</v>
       </c>
@@ -29093,9 +28857,8 @@
       <c r="Z408">
         <v>1.5</v>
       </c>
-      <c r="AA408" s="1"/>
-    </row>
-    <row r="409" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="409" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>443</v>
       </c>
@@ -29150,9 +28913,8 @@
       <c r="Z409">
         <v>3</v>
       </c>
-      <c r="AA409" s="1"/>
-    </row>
-    <row r="410" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="410" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>444</v>
       </c>
@@ -29207,9 +28969,8 @@
       <c r="Z410">
         <v>3.2</v>
       </c>
-      <c r="AA410" s="1"/>
-    </row>
-    <row r="411" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="411" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>445</v>
       </c>
@@ -29264,9 +29025,8 @@
       <c r="Z411">
         <v>2.7</v>
       </c>
-      <c r="AA411" s="1"/>
-    </row>
-    <row r="412" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="412" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>446</v>
       </c>
@@ -29321,9 +29081,8 @@
       <c r="Z412">
         <v>2</v>
       </c>
-      <c r="AA412" s="1"/>
-    </row>
-    <row r="413" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="413" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>447</v>
       </c>
@@ -29378,9 +29137,8 @@
       <c r="Z413">
         <v>2.5</v>
       </c>
-      <c r="AA413" s="1"/>
-    </row>
-    <row r="414" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="414" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>448</v>
       </c>
@@ -29435,9 +29193,8 @@
       <c r="Z414">
         <v>0.9</v>
       </c>
-      <c r="AA414" s="1"/>
-    </row>
-    <row r="415" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="415" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>449</v>
       </c>
@@ -29492,9 +29249,8 @@
       <c r="Z415">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AA415" s="1"/>
-    </row>
-    <row r="416" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="416" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>450</v>
       </c>
@@ -29552,9 +29308,8 @@
       <c r="Z416" t="s">
         <v>132</v>
       </c>
-      <c r="AA416" s="1"/>
-    </row>
-    <row r="417" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="417" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>451</v>
       </c>
@@ -29612,9 +29367,8 @@
       <c r="Z417" t="s">
         <v>132</v>
       </c>
-      <c r="AA417" s="1"/>
-    </row>
-    <row r="418" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="418" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>452</v>
       </c>
@@ -29669,9 +29423,8 @@
       <c r="Z418">
         <v>0.7</v>
       </c>
-      <c r="AA418" s="1"/>
-    </row>
-    <row r="419" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="419" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>453</v>
       </c>
@@ -29726,9 +29479,8 @@
       <c r="Z419">
         <v>2.7</v>
       </c>
-      <c r="AA419" s="1"/>
-    </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="420" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>454</v>
       </c>
@@ -29783,9 +29535,8 @@
       <c r="Z420">
         <v>1.3</v>
       </c>
-      <c r="AA420" s="1"/>
-    </row>
-    <row r="421" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="421" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>455</v>
       </c>
@@ -29843,9 +29594,8 @@
       <c r="Z421" t="s">
         <v>132</v>
       </c>
-      <c r="AA421" s="1"/>
-    </row>
-    <row r="422" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="422" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>457</v>
       </c>
@@ -29900,9 +29650,8 @@
       <c r="Z422">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AA422" s="1"/>
-    </row>
-    <row r="423" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="423" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>458</v>
       </c>
@@ -29960,9 +29709,8 @@
       <c r="Z423" t="s">
         <v>132</v>
       </c>
-      <c r="AA423" s="1"/>
-    </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="424" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>460</v>
       </c>
@@ -30017,9 +29765,8 @@
       <c r="Z424">
         <v>7.8</v>
       </c>
-      <c r="AA424" s="1"/>
-    </row>
-    <row r="425" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="425" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>461</v>
       </c>
@@ -30074,9 +29821,8 @@
       <c r="Z425">
         <v>1.3</v>
       </c>
-      <c r="AA425" s="1"/>
-    </row>
-    <row r="426" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="426" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>462</v>
       </c>
@@ -30093,7 +29839,7 @@
         <v>391</v>
       </c>
       <c r="F426" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H426">
         <v>0.9</v>
@@ -30134,9 +29880,8 @@
       <c r="Z426" t="s">
         <v>132</v>
       </c>
-      <c r="AA426" s="1"/>
-    </row>
-    <row r="427" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="427" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>463</v>
       </c>
@@ -30191,9 +29936,8 @@
       <c r="Z427">
         <v>18.2</v>
       </c>
-      <c r="AA427" s="1"/>
-    </row>
-    <row r="428" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="428" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>464</v>
       </c>
@@ -30248,9 +29992,8 @@
       <c r="Z428">
         <v>0.6</v>
       </c>
-      <c r="AA428" s="1"/>
-    </row>
-    <row r="429" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="429" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>465</v>
       </c>
@@ -30305,9 +30048,8 @@
       <c r="Z429" t="s">
         <v>132</v>
       </c>
-      <c r="AA429" s="1"/>
-    </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="430" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>467</v>
       </c>
@@ -30362,9 +30104,8 @@
       <c r="Z430">
         <v>4.7</v>
       </c>
-      <c r="AA430" s="1"/>
-    </row>
-    <row r="431" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="431" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>468</v>
       </c>
@@ -30422,9 +30163,8 @@
       <c r="Z431" t="s">
         <v>132</v>
       </c>
-      <c r="AA431" s="1"/>
-    </row>
-    <row r="432" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="432" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>469</v>
       </c>
@@ -30479,9 +30219,8 @@
       <c r="Z432">
         <v>7.5</v>
       </c>
-      <c r="AA432" s="1"/>
-    </row>
-    <row r="433" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="433" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>470</v>
       </c>
@@ -30536,9 +30275,8 @@
       <c r="Z433">
         <v>0.8</v>
       </c>
-      <c r="AA433" s="1"/>
-    </row>
-    <row r="434" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="434" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>471</v>
       </c>
@@ -30593,9 +30331,8 @@
       <c r="Z434">
         <v>3.2</v>
       </c>
-      <c r="AA434" s="1"/>
-    </row>
-    <row r="435" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="435" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>472</v>
       </c>
@@ -30650,9 +30387,8 @@
       <c r="Z435">
         <v>2</v>
       </c>
-      <c r="AA435" s="1"/>
-    </row>
-    <row r="436" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="436" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>473</v>
       </c>
@@ -30707,9 +30443,8 @@
       <c r="Z436">
         <v>2.6</v>
       </c>
-      <c r="AA436" s="1"/>
-    </row>
-    <row r="437" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="437" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>474</v>
       </c>
@@ -30764,9 +30499,8 @@
       <c r="Z437">
         <v>2.7</v>
       </c>
-      <c r="AA437" s="1"/>
-    </row>
-    <row r="438" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="438" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>475</v>
       </c>
@@ -30821,9 +30555,8 @@
       <c r="Z438">
         <v>1.2</v>
       </c>
-      <c r="AA438" s="1"/>
-    </row>
-    <row r="439" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="439" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>476</v>
       </c>
@@ -30878,9 +30611,8 @@
       <c r="Z439">
         <v>3.4</v>
       </c>
-      <c r="AA439" s="1"/>
-    </row>
-    <row r="440" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="440" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>477</v>
       </c>
@@ -30935,9 +30667,8 @@
       <c r="Z440">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA440" s="1"/>
-    </row>
-    <row r="441" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="441" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>478</v>
       </c>
@@ -30992,9 +30723,8 @@
       <c r="Z441">
         <v>3.4</v>
       </c>
-      <c r="AA441" s="1"/>
-    </row>
-    <row r="442" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="442" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>479</v>
       </c>
@@ -31052,9 +30782,8 @@
       <c r="Z442" t="s">
         <v>132</v>
       </c>
-      <c r="AA442" s="1"/>
-    </row>
-    <row r="443" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="443" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>481</v>
       </c>
@@ -31109,9 +30838,8 @@
       <c r="Z443">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA443" s="1"/>
-    </row>
-    <row r="444" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="444" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>482</v>
       </c>
@@ -31166,9 +30894,8 @@
       <c r="Z444" t="s">
         <v>132</v>
       </c>
-      <c r="AA444" s="1"/>
-    </row>
-    <row r="445" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="445" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>483</v>
       </c>
@@ -31223,9 +30950,8 @@
       <c r="Z445">
         <v>0.9</v>
       </c>
-      <c r="AA445" s="1"/>
-    </row>
-    <row r="446" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="446" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>484</v>
       </c>
@@ -31280,9 +31006,8 @@
       <c r="Z446">
         <v>1.4</v>
       </c>
-      <c r="AA446" s="1"/>
-    </row>
-    <row r="447" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="447" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>485</v>
       </c>
@@ -31337,9 +31062,8 @@
       <c r="Z447">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA447" s="1"/>
-    </row>
-    <row r="448" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="448" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>486</v>
       </c>
@@ -31394,9 +31118,8 @@
       <c r="Z448">
         <v>3.1</v>
       </c>
-      <c r="AA448" s="1"/>
-    </row>
-    <row r="449" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>487</v>
       </c>
@@ -31451,9 +31174,8 @@
       <c r="Z449">
         <v>1.9</v>
       </c>
-      <c r="AA449" s="1"/>
-    </row>
-    <row r="450" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>488</v>
       </c>
@@ -31508,9 +31230,8 @@
       <c r="Z450">
         <v>1.5</v>
       </c>
-      <c r="AA450" s="1"/>
-    </row>
-    <row r="451" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>489</v>
       </c>
@@ -31568,9 +31289,8 @@
       <c r="Z451" t="s">
         <v>132</v>
       </c>
-      <c r="AA451" s="1"/>
-    </row>
-    <row r="452" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>490</v>
       </c>
@@ -31638,7 +31358,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="453" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>493</v>
       </c>
@@ -31706,7 +31426,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="454" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>494</v>
       </c>
@@ -31774,7 +31494,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="455" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>495</v>
       </c>
@@ -31842,7 +31562,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="456" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>496</v>
       </c>
@@ -31910,7 +31630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>497</v>
       </c>
@@ -31927,7 +31647,7 @@
         <v>492</v>
       </c>
       <c r="F457" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="J457">
         <v>1.2</v>
@@ -31981,7 +31701,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="458" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>498</v>
       </c>
@@ -32049,7 +31769,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="459" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>499</v>
       </c>
@@ -32117,7 +31837,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="460" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>500</v>
       </c>
@@ -32185,7 +31905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>501</v>
       </c>
@@ -32253,7 +31973,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="462" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>502</v>
       </c>
@@ -32321,7 +32041,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="463" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>503</v>
       </c>
@@ -32389,7 +32109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="464" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>504</v>
       </c>
@@ -32457,7 +32177,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="465" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>505</v>
       </c>
@@ -32525,7 +32245,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="466" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>506</v>
       </c>
@@ -32593,7 +32313,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="467" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>507</v>
       </c>
@@ -32661,7 +32381,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="468" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>508</v>
       </c>
@@ -32729,7 +32449,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="469" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>509</v>
       </c>
@@ -32797,7 +32517,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="470" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>510</v>
       </c>
@@ -32865,7 +32585,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="471" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>511</v>
       </c>
@@ -32933,7 +32653,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="472" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>512</v>
       </c>
@@ -33001,7 +32721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>513</v>
       </c>
@@ -33069,7 +32789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>514</v>
       </c>
@@ -33140,7 +32860,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="475" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>516</v>
       </c>
@@ -33208,7 +32928,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="476" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>517</v>
       </c>
@@ -33276,7 +32996,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="477" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>518</v>
       </c>
@@ -33344,7 +33064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>519</v>
       </c>
@@ -33412,7 +33132,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="479" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>520</v>
       </c>
@@ -33480,7 +33200,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="480" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>521</v>
       </c>
@@ -33548,7 +33268,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>522</v>
       </c>
@@ -33616,7 +33336,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="482" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>523</v>
       </c>
@@ -33684,7 +33404,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>524</v>
       </c>
@@ -33752,7 +33472,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="484" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>525</v>
       </c>
@@ -33820,7 +33540,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="485" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>526</v>
       </c>
@@ -33837,7 +33557,7 @@
         <v>492</v>
       </c>
       <c r="F485" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J485">
         <v>0.5</v>
@@ -33891,7 +33611,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="486" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>527</v>
       </c>
@@ -33959,7 +33679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>528</v>
       </c>
@@ -33976,7 +33696,7 @@
         <v>492</v>
       </c>
       <c r="F487" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="J487">
         <v>1.8</v>
@@ -34030,7 +33750,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="488" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>529</v>
       </c>
@@ -34098,7 +33818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>530</v>
       </c>
@@ -34166,7 +33886,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="490" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>531</v>
       </c>
@@ -34234,7 +33954,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="491" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>532</v>
       </c>
@@ -34302,7 +34022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>533</v>
       </c>
@@ -34370,7 +34090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>534</v>
       </c>
@@ -34438,7 +34158,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="494" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>535</v>
       </c>
@@ -34506,7 +34226,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="495" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>536</v>
       </c>
@@ -34577,7 +34297,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="496" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>538</v>
       </c>
@@ -34645,7 +34365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>539</v>
       </c>
@@ -34713,7 +34433,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>540</v>
       </c>
@@ -34781,7 +34501,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="499" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>541</v>
       </c>
@@ -34849,7 +34569,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="500" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>542</v>
       </c>
@@ -34917,7 +34637,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="501" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>543</v>
       </c>
@@ -34985,7 +34705,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="502" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>544</v>
       </c>
@@ -35053,7 +34773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>545</v>
       </c>
@@ -35121,7 +34841,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="504" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>546</v>
       </c>
@@ -35189,7 +34909,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="505" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>547</v>
       </c>
@@ -35257,7 +34977,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="506" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>548</v>
       </c>
@@ -35325,7 +35045,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="507" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>549</v>
       </c>
@@ -35393,7 +35113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>550</v>
       </c>
@@ -35461,7 +35181,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="509" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>551</v>
       </c>
@@ -35529,7 +35249,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="510" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>552</v>
       </c>
@@ -35597,7 +35317,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="511" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>553</v>
       </c>
@@ -35665,7 +35385,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="512" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>554</v>
       </c>
@@ -35733,7 +35453,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="513" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>555</v>
       </c>
@@ -35801,7 +35521,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="514" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>556</v>
       </c>
@@ -35869,7 +35589,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="515" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>557</v>
       </c>
@@ -35937,7 +35657,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="516" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>558</v>
       </c>
@@ -36005,7 +35725,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="517" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>559</v>
       </c>
@@ -36076,7 +35796,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="518" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>560</v>
       </c>
@@ -36147,7 +35867,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="519" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>561</v>
       </c>
@@ -36215,7 +35935,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="520" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>562</v>
       </c>
@@ -36283,7 +36003,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="521" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>563</v>
       </c>
@@ -36351,7 +36071,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="522" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>564</v>
       </c>
@@ -36419,7 +36139,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="523" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>565</v>
       </c>
@@ -36487,7 +36207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="524" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>566</v>
       </c>
@@ -36555,7 +36275,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="525" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>567</v>
       </c>
@@ -36623,7 +36343,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="526" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>568</v>
       </c>
@@ -36691,7 +36411,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="527" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>569</v>
       </c>
@@ -36759,7 +36479,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="528" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>570</v>
       </c>
@@ -36827,7 +36547,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="529" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>571</v>
       </c>
@@ -36895,7 +36615,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="530" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>572</v>
       </c>
@@ -36963,7 +36683,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="531" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>573</v>
       </c>
@@ -37031,7 +36751,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="532" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>574</v>
       </c>
@@ -37102,7 +36822,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="533" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>576</v>
       </c>
@@ -37170,7 +36890,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="534" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>577</v>
       </c>
@@ -37238,7 +36958,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="535" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>578</v>
       </c>
@@ -37306,7 +37026,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="536" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>579</v>
       </c>
@@ -37374,7 +37094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>580</v>
       </c>
@@ -37442,7 +37162,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="538" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>581</v>
       </c>
@@ -37510,7 +37230,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="539" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>582</v>
       </c>
@@ -37578,7 +37298,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="540" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>583</v>
       </c>
@@ -37646,7 +37366,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="541" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>584</v>
       </c>
@@ -37714,7 +37434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="542" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>585</v>
       </c>
@@ -37731,7 +37451,7 @@
         <v>587</v>
       </c>
       <c r="F542" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J542">
         <v>0.4</v>
@@ -37781,11 +37501,11 @@
       <c r="Z542" t="s">
         <v>132</v>
       </c>
-      <c r="AA542" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="543" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA542" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="543" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>588</v>
       </c>
@@ -37802,7 +37522,7 @@
         <v>587</v>
       </c>
       <c r="F543" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="J543">
         <v>0.4</v>
@@ -37852,11 +37572,11 @@
       <c r="Z543">
         <v>1.5</v>
       </c>
-      <c r="AA543" s="1">
+      <c r="AA543">
         <v>1.7</v>
       </c>
     </row>
-    <row r="544" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>589</v>
       </c>
@@ -37873,7 +37593,7 @@
         <v>587</v>
       </c>
       <c r="F544" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J544">
         <v>0.3</v>
@@ -37923,11 +37643,11 @@
       <c r="Z544" t="s">
         <v>132</v>
       </c>
-      <c r="AA544" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="545" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA544" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="545" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>590</v>
       </c>
@@ -37991,11 +37711,11 @@
       <c r="Z545">
         <v>1.9</v>
       </c>
-      <c r="AA545" s="1">
+      <c r="AA545">
         <v>2</v>
       </c>
     </row>
-    <row r="546" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>591</v>
       </c>
@@ -38012,7 +37732,7 @@
         <v>587</v>
       </c>
       <c r="F546" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="J546">
         <v>0.2</v>
@@ -38062,11 +37782,11 @@
       <c r="Z546">
         <v>1.2</v>
       </c>
-      <c r="AA546" s="1">
+      <c r="AA546">
         <v>0.8</v>
       </c>
     </row>
-    <row r="547" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>592</v>
       </c>
@@ -38130,11 +37850,11 @@
       <c r="Z547">
         <v>3.9</v>
       </c>
-      <c r="AA547" s="1">
+      <c r="AA547">
         <v>3.9</v>
       </c>
     </row>
-    <row r="548" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>593</v>
       </c>
@@ -38151,7 +37871,7 @@
         <v>587</v>
       </c>
       <c r="F548" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="J548">
         <v>0.5</v>
@@ -38201,11 +37921,11 @@
       <c r="Z548">
         <v>4.3</v>
       </c>
-      <c r="AA548" s="1">
+      <c r="AA548">
         <v>4.5</v>
       </c>
     </row>
-    <row r="549" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>594</v>
       </c>
@@ -38269,11 +37989,11 @@
       <c r="Z549">
         <v>2.1</v>
       </c>
-      <c r="AA549" s="1">
+      <c r="AA549">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="550" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>595</v>
       </c>
@@ -38337,11 +38057,11 @@
       <c r="Z550">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA550" s="1">
+      <c r="AA550">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>596</v>
       </c>
@@ -38358,7 +38078,7 @@
         <v>587</v>
       </c>
       <c r="F551" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J551">
         <v>0.4</v>
@@ -38408,11 +38128,11 @@
       <c r="Z551">
         <v>3.5</v>
       </c>
-      <c r="AA551" s="1">
+      <c r="AA551">
         <v>3.5</v>
       </c>
     </row>
-    <row r="552" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>597</v>
       </c>
@@ -38479,11 +38199,11 @@
       <c r="Z552" t="s">
         <v>132</v>
       </c>
-      <c r="AA552" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="553" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA552" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="553" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>598</v>
       </c>
@@ -38547,11 +38267,11 @@
       <c r="Z553">
         <v>1.3</v>
       </c>
-      <c r="AA553" s="1">
+      <c r="AA553">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="554" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>599</v>
       </c>
@@ -38568,7 +38288,7 @@
         <v>587</v>
       </c>
       <c r="F554" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="J554">
         <v>0.6</v>
@@ -38618,11 +38338,11 @@
       <c r="Z554" t="s">
         <v>132</v>
       </c>
-      <c r="AA554" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="555" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA554" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="555" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>600</v>
       </c>
@@ -38686,11 +38406,11 @@
       <c r="Z555">
         <v>1</v>
       </c>
-      <c r="AA555" s="1">
+      <c r="AA555">
         <v>1.2</v>
       </c>
     </row>
-    <row r="556" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>601</v>
       </c>
@@ -38754,11 +38474,11 @@
       <c r="Z556">
         <v>4.2</v>
       </c>
-      <c r="AA556" s="1">
+      <c r="AA556">
         <v>4</v>
       </c>
     </row>
-    <row r="557" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>602</v>
       </c>
@@ -38825,11 +38545,11 @@
       <c r="Z557" t="s">
         <v>132</v>
       </c>
-      <c r="AA557" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="558" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA557" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="558" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>603</v>
       </c>
@@ -38893,11 +38613,11 @@
       <c r="Z558">
         <v>1.5</v>
       </c>
-      <c r="AA558" s="1">
+      <c r="AA558">
         <v>1.5</v>
       </c>
     </row>
-    <row r="559" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>604</v>
       </c>
@@ -38961,11 +38681,11 @@
       <c r="Z559">
         <v>3</v>
       </c>
-      <c r="AA559" s="1">
+      <c r="AA559">
         <v>3.1</v>
       </c>
     </row>
-    <row r="560" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>605</v>
       </c>
@@ -38982,7 +38702,7 @@
         <v>587</v>
       </c>
       <c r="F560" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J560">
         <v>0.3</v>
@@ -39032,11 +38752,11 @@
       <c r="Z560">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AA560" s="1">
+      <c r="AA560">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>606</v>
       </c>
@@ -39100,11 +38820,11 @@
       <c r="Z561">
         <v>2</v>
       </c>
-      <c r="AA561" s="1">
+      <c r="AA561">
         <v>2.1</v>
       </c>
     </row>
-    <row r="562" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>607</v>
       </c>
@@ -39168,11 +38888,11 @@
       <c r="Z562">
         <v>1.2</v>
       </c>
-      <c r="AA562" s="1">
+      <c r="AA562">
         <v>1.5</v>
       </c>
     </row>
-    <row r="563" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>608</v>
       </c>
@@ -39236,11 +38956,11 @@
       <c r="Z563">
         <v>3.7</v>
       </c>
-      <c r="AA563" s="1">
+      <c r="AA563">
         <v>3.8</v>
       </c>
     </row>
-    <row r="564" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>609</v>
       </c>
@@ -39257,7 +38977,7 @@
         <v>587</v>
       </c>
       <c r="F564" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J564">
         <v>0.5</v>
@@ -39307,11 +39027,11 @@
       <c r="Z564">
         <v>6</v>
       </c>
-      <c r="AA564" s="1">
+      <c r="AA564">
         <v>6.2</v>
       </c>
     </row>
-    <row r="565" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>610</v>
       </c>
@@ -39375,11 +39095,11 @@
       <c r="Z565">
         <v>0.6</v>
       </c>
-      <c r="AA565" s="1">
+      <c r="AA565">
         <v>0.7</v>
       </c>
     </row>
-    <row r="566" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>611</v>
       </c>
@@ -39446,11 +39166,11 @@
       <c r="Z566" t="s">
         <v>132</v>
       </c>
-      <c r="AA566" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="567" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA566" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="567" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>612</v>
       </c>
@@ -39514,11 +39234,11 @@
       <c r="Z567">
         <v>3.8</v>
       </c>
-      <c r="AA567" s="1">
+      <c r="AA567">
         <v>3.5</v>
       </c>
     </row>
-    <row r="568" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>613</v>
       </c>
@@ -39535,7 +39255,7 @@
         <v>587</v>
       </c>
       <c r="F568" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J568">
         <v>0.4</v>
@@ -39585,11 +39305,11 @@
       <c r="Z568">
         <v>10</v>
       </c>
-      <c r="AA568" s="1">
+      <c r="AA568">
         <v>9.9</v>
       </c>
     </row>
-    <row r="569" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>614</v>
       </c>
@@ -39653,11 +39373,11 @@
       <c r="Z569">
         <v>5.8</v>
       </c>
-      <c r="AA569" s="1">
+      <c r="AA569">
         <v>6.1</v>
       </c>
     </row>
-    <row r="570" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>615</v>
       </c>
@@ -39721,11 +39441,11 @@
       <c r="Z570">
         <v>8.9</v>
       </c>
-      <c r="AA570" s="1">
+      <c r="AA570">
         <v>8.4</v>
       </c>
     </row>
-    <row r="571" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>616</v>
       </c>
@@ -39789,11 +39509,11 @@
       <c r="Z571" t="s">
         <v>132</v>
       </c>
-      <c r="AA571" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="572" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA571" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="572" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>617</v>
       </c>
@@ -39857,11 +39577,11 @@
       <c r="Z572">
         <v>3</v>
       </c>
-      <c r="AA572" s="1">
+      <c r="AA572">
         <v>3</v>
       </c>
     </row>
-    <row r="573" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>618</v>
       </c>
@@ -39925,11 +39645,11 @@
       <c r="Z573">
         <v>3.4</v>
       </c>
-      <c r="AA573" s="1">
+      <c r="AA573">
         <v>3.5</v>
       </c>
     </row>
-    <row r="574" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>619</v>
       </c>
@@ -39993,11 +39713,11 @@
       <c r="Z574" t="s">
         <v>132</v>
       </c>
-      <c r="AA574" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="575" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA574" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="575" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>620</v>
       </c>
@@ -40064,11 +39784,11 @@
       <c r="Z575" t="s">
         <v>132</v>
       </c>
-      <c r="AA575" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="576" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA575" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="576" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>621</v>
       </c>
@@ -40135,11 +39855,11 @@
       <c r="Z576" t="s">
         <v>132</v>
       </c>
-      <c r="AA576" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="577" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA576" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="577" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>622</v>
       </c>
@@ -40156,7 +39876,7 @@
         <v>587</v>
       </c>
       <c r="F577" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="J577">
         <v>0.4</v>
@@ -40206,11 +39926,11 @@
       <c r="Z577" t="s">
         <v>132</v>
       </c>
-      <c r="AA577" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="578" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA577" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="578" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>623</v>
       </c>
@@ -40227,7 +39947,7 @@
         <v>587</v>
       </c>
       <c r="F578" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="J578">
         <v>0.5</v>
@@ -40277,11 +39997,11 @@
       <c r="Z578" t="s">
         <v>132</v>
       </c>
-      <c r="AA578" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="579" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA578" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="579" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>624</v>
       </c>
@@ -40345,11 +40065,11 @@
       <c r="Z579">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AA579" s="1">
+      <c r="AA579">
         <v>4.5</v>
       </c>
     </row>
-    <row r="580" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>625</v>
       </c>
@@ -40413,11 +40133,11 @@
       <c r="Z580">
         <v>1.2</v>
       </c>
-      <c r="AA580" s="1">
+      <c r="AA580">
         <v>1.8</v>
       </c>
     </row>
-    <row r="581" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>626</v>
       </c>
@@ -40481,11 +40201,11 @@
       <c r="Z581">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AA581" s="1">
+      <c r="AA581">
         <v>2.7</v>
       </c>
     </row>
-    <row r="582" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>627</v>
       </c>
@@ -40549,11 +40269,11 @@
       <c r="Z582">
         <v>5</v>
       </c>
-      <c r="AA582" s="1">
+      <c r="AA582">
         <v>5</v>
       </c>
     </row>
-    <row r="583" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>628</v>
       </c>
@@ -40617,11 +40337,11 @@
       <c r="Z583">
         <v>0.7</v>
       </c>
-      <c r="AA583" s="1">
+      <c r="AA583">
         <v>0.6</v>
       </c>
     </row>
-    <row r="584" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>629</v>
       </c>
@@ -40685,11 +40405,11 @@
       <c r="Z584">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AA584" s="1">
+      <c r="AA584">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="585" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>630</v>
       </c>
@@ -40753,11 +40473,11 @@
       <c r="Z585">
         <v>7.8</v>
       </c>
-      <c r="AA585" s="1">
+      <c r="AA585">
         <v>7</v>
       </c>
     </row>
-    <row r="586" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>631</v>
       </c>
@@ -40821,11 +40541,11 @@
       <c r="Z586">
         <v>8.4</v>
       </c>
-      <c r="AA586" s="1">
+      <c r="AA586">
         <v>7.3</v>
       </c>
     </row>
-    <row r="587" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>632</v>
       </c>
@@ -40842,7 +40562,7 @@
         <v>587</v>
       </c>
       <c r="F587" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J587">
         <v>0.4</v>
@@ -40892,11 +40612,11 @@
       <c r="Z587">
         <v>1.4</v>
       </c>
-      <c r="AA587" s="1">
+      <c r="AA587">
         <v>1.4</v>
       </c>
     </row>
-    <row r="588" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>633</v>
       </c>
@@ -40963,11 +40683,11 @@
       <c r="Z588" t="s">
         <v>132</v>
       </c>
-      <c r="AA588" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="589" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA588" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="589" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>635</v>
       </c>
@@ -41034,11 +40754,11 @@
       <c r="Z589" t="s">
         <v>132</v>
       </c>
-      <c r="AA589" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="590" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA589" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="590" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>637</v>
       </c>
@@ -41055,7 +40775,7 @@
         <v>587</v>
       </c>
       <c r="F590" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J590">
         <v>0.4</v>
@@ -41105,11 +40825,11 @@
       <c r="Z590" t="s">
         <v>132</v>
       </c>
-      <c r="AA590" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="591" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA590" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="591" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>638</v>
       </c>
@@ -41173,11 +40893,11 @@
       <c r="Z591">
         <v>0.5</v>
       </c>
-      <c r="AA591" s="1">
+      <c r="AA591">
         <v>0.5</v>
       </c>
     </row>
-    <row r="592" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>639</v>
       </c>
@@ -41241,11 +40961,11 @@
       <c r="Z592">
         <v>3.9</v>
       </c>
-      <c r="AA592" s="1">
+      <c r="AA592">
         <v>3.8</v>
       </c>
     </row>
-    <row r="593" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>640</v>
       </c>
@@ -41309,11 +41029,11 @@
       <c r="Z593">
         <v>5.4</v>
       </c>
-      <c r="AA593" s="1">
+      <c r="AA593">
         <v>5.3</v>
       </c>
     </row>
-    <row r="594" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>641</v>
       </c>
@@ -41377,11 +41097,11 @@
       <c r="Z594">
         <v>6.8</v>
       </c>
-      <c r="AA594" s="1">
+      <c r="AA594">
         <v>7.1</v>
       </c>
     </row>
-    <row r="595" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>642</v>
       </c>
@@ -41445,11 +41165,11 @@
       <c r="Z595">
         <v>4.8</v>
       </c>
-      <c r="AA595" s="1">
+      <c r="AA595">
         <v>4.5</v>
       </c>
     </row>
-    <row r="596" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>643</v>
       </c>
@@ -41513,11 +41233,11 @@
       <c r="Z596">
         <v>0.5</v>
       </c>
-      <c r="AA596" s="1">
+      <c r="AA596">
         <v>0.4</v>
       </c>
     </row>
-    <row r="597" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>644</v>
       </c>
@@ -41534,7 +41254,7 @@
         <v>587</v>
       </c>
       <c r="F597" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="J597">
         <v>0.4</v>
@@ -41584,11 +41304,11 @@
       <c r="Z597">
         <v>3.4</v>
       </c>
-      <c r="AA597" s="1">
+      <c r="AA597">
         <v>3.2</v>
       </c>
     </row>
-    <row r="598" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>645</v>
       </c>
@@ -41652,11 +41372,11 @@
       <c r="Z598">
         <v>2.6</v>
       </c>
-      <c r="AA598" s="1">
+      <c r="AA598">
         <v>2.6</v>
       </c>
     </row>
-    <row r="599" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>646</v>
       </c>
@@ -41720,11 +41440,11 @@
       <c r="Z599">
         <v>7.2</v>
       </c>
-      <c r="AA599" s="1">
+      <c r="AA599">
         <v>6.8</v>
       </c>
     </row>
-    <row r="600" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>647</v>
       </c>
@@ -41741,7 +41461,7 @@
         <v>587</v>
       </c>
       <c r="F600" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J600">
         <v>0.4</v>
@@ -41791,11 +41511,11 @@
       <c r="Z600">
         <v>3.9</v>
       </c>
-      <c r="AA600" s="1">
+      <c r="AA600">
         <v>3.8</v>
       </c>
     </row>
-    <row r="601" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>648</v>
       </c>
@@ -41862,11 +41582,11 @@
       <c r="Z601" t="s">
         <v>132</v>
       </c>
-      <c r="AA601" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="602" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA601" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="602" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>649</v>
       </c>
@@ -41930,11 +41650,11 @@
       <c r="Z602">
         <v>7.5</v>
       </c>
-      <c r="AA602" s="1">
+      <c r="AA602">
         <v>7.6</v>
       </c>
     </row>
-    <row r="603" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>650</v>
       </c>
@@ -42001,11 +41721,11 @@
       <c r="Z603" t="s">
         <v>132</v>
       </c>
-      <c r="AA603" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="604" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA603" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="604" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>652</v>
       </c>
@@ -42072,11 +41792,11 @@
       <c r="Z604" t="s">
         <v>132</v>
       </c>
-      <c r="AA604" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="605" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA604" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="605" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>653</v>
       </c>
@@ -42140,11 +41860,11 @@
       <c r="Z605" t="s">
         <v>132</v>
       </c>
-      <c r="AA605" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="606" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA605" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="606" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>654</v>
       </c>
@@ -42208,11 +41928,11 @@
       <c r="Z606">
         <v>1.5</v>
       </c>
-      <c r="AA606" s="1">
+      <c r="AA606">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="607" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>655</v>
       </c>
@@ -42279,11 +41999,11 @@
       <c r="Z607">
         <v>3.7</v>
       </c>
-      <c r="AA607" s="1">
+      <c r="AA607">
         <v>4</v>
       </c>
     </row>
-    <row r="608" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>656</v>
       </c>
@@ -42347,11 +42067,11 @@
       <c r="Z608">
         <v>5.2</v>
       </c>
-      <c r="AA608" s="1">
+      <c r="AA608">
         <v>5</v>
       </c>
     </row>
-    <row r="609" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>657</v>
       </c>
@@ -42418,11 +42138,11 @@
       <c r="Z609" t="s">
         <v>132</v>
       </c>
-      <c r="AA609" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="610" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA609" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="610" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>658</v>
       </c>
@@ -42486,11 +42206,11 @@
       <c r="Z610">
         <v>0.6</v>
       </c>
-      <c r="AA610" s="1">
+      <c r="AA610">
         <v>0.5</v>
       </c>
     </row>
-    <row r="611" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>659</v>
       </c>
@@ -42507,7 +42227,7 @@
         <v>587</v>
       </c>
       <c r="F611" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J611">
         <v>0.4</v>
@@ -42557,11 +42277,11 @@
       <c r="Z611" t="s">
         <v>132</v>
       </c>
-      <c r="AA611" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="612" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA611" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="612" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>660</v>
       </c>
@@ -42628,11 +42348,11 @@
       <c r="Z612" t="s">
         <v>132</v>
       </c>
-      <c r="AA612" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="613" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA612" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="613" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>661</v>
       </c>
@@ -42696,11 +42416,11 @@
       <c r="Z613">
         <v>6</v>
       </c>
-      <c r="AA613" s="1">
+      <c r="AA613">
         <v>6.2</v>
       </c>
     </row>
-    <row r="614" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>662</v>
       </c>
@@ -42767,11 +42487,11 @@
       <c r="Z614">
         <v>9</v>
       </c>
-      <c r="AA614" s="1">
+      <c r="AA614">
         <v>8.5</v>
       </c>
     </row>
-    <row r="615" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>664</v>
       </c>
@@ -42835,11 +42555,11 @@
       <c r="Z615">
         <v>2.9</v>
       </c>
-      <c r="AA615" s="1">
+      <c r="AA615">
         <v>2.4</v>
       </c>
     </row>
-    <row r="616" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>665</v>
       </c>
@@ -42903,11 +42623,11 @@
       <c r="Z616">
         <v>9.5</v>
       </c>
-      <c r="AA616" s="1">
+      <c r="AA616">
         <v>9</v>
       </c>
     </row>
-    <row r="617" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>666</v>
       </c>
@@ -42971,11 +42691,11 @@
       <c r="Z617">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AA617" s="1">
+      <c r="AA617">
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>667</v>
       </c>
@@ -43039,11 +42759,11 @@
       <c r="Z618">
         <v>0.6</v>
       </c>
-      <c r="AA618" s="1">
+      <c r="AA618">
         <v>0.6</v>
       </c>
     </row>
-    <row r="619" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>668</v>
       </c>
@@ -43060,7 +42780,7 @@
         <v>587</v>
       </c>
       <c r="F619" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J619">
         <v>0.4</v>
@@ -43110,11 +42830,11 @@
       <c r="Z619">
         <v>5.8</v>
       </c>
-      <c r="AA619" s="1">
+      <c r="AA619">
         <v>5.9</v>
       </c>
     </row>
-    <row r="620" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>669</v>
       </c>
@@ -43181,11 +42901,11 @@
       <c r="Z620" t="s">
         <v>132</v>
       </c>
-      <c r="AA620" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="621" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA620" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="621" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>670</v>
       </c>
@@ -43202,7 +42922,7 @@
         <v>587</v>
       </c>
       <c r="F621" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J621">
         <v>0.4</v>
@@ -43252,11 +42972,11 @@
       <c r="Z621">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AA621" s="1">
+      <c r="AA621">
         <v>2.4</v>
       </c>
     </row>
-    <row r="622" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>671</v>
       </c>
@@ -43320,11 +43040,11 @@
       <c r="Z622">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AA622" s="1">
+      <c r="AA622">
         <v>5</v>
       </c>
     </row>
-    <row r="623" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>672</v>
       </c>
@@ -43388,11 +43108,11 @@
       <c r="Z623">
         <v>3.3</v>
       </c>
-      <c r="AA623" s="1">
+      <c r="AA623">
         <v>3.4</v>
       </c>
     </row>
-    <row r="624" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>673</v>
       </c>
@@ -43456,11 +43176,11 @@
       <c r="Z624">
         <v>6</v>
       </c>
-      <c r="AA624" s="1">
+      <c r="AA624">
         <v>5.8</v>
       </c>
     </row>
-    <row r="625" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>674</v>
       </c>
@@ -43524,11 +43244,11 @@
       <c r="Z625">
         <v>6</v>
       </c>
-      <c r="AA625" s="1">
+      <c r="AA625">
         <v>6.1</v>
       </c>
     </row>
-    <row r="626" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>675</v>
       </c>
@@ -43545,7 +43265,7 @@
         <v>587</v>
       </c>
       <c r="F626" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J626">
         <v>0.9</v>
@@ -43595,11 +43315,11 @@
       <c r="Z626">
         <v>2</v>
       </c>
-      <c r="AA626" s="1">
+      <c r="AA626">
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>676</v>
       </c>
@@ -43663,11 +43383,11 @@
       <c r="Z627">
         <v>3.8</v>
       </c>
-      <c r="AA627" s="1">
+      <c r="AA627">
         <v>3.2</v>
       </c>
     </row>
-    <row r="628" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>677</v>
       </c>
@@ -43731,11 +43451,11 @@
       <c r="Z628">
         <v>2.4</v>
       </c>
-      <c r="AA628" s="1">
+      <c r="AA628">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="629" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>678</v>
       </c>
@@ -43799,11 +43519,11 @@
       <c r="Z629">
         <v>2.6</v>
       </c>
-      <c r="AA629" s="1">
+      <c r="AA629">
         <v>2.4</v>
       </c>
     </row>
-    <row r="630" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>679</v>
       </c>
@@ -43867,11 +43587,11 @@
       <c r="Z630">
         <v>6.3</v>
       </c>
-      <c r="AA630" s="1">
+      <c r="AA630">
         <v>6.5</v>
       </c>
     </row>
-    <row r="631" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>680</v>
       </c>
@@ -43888,7 +43608,7 @@
         <v>587</v>
       </c>
       <c r="F631" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J631">
         <v>0.6</v>
@@ -43938,7 +43658,7 @@
       <c r="Z631" t="s">
         <v>132</v>
       </c>
-      <c r="AA631" s="1" t="s">
+      <c r="AA631" t="s">
         <v>132</v>
       </c>
     </row>
